--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -689,8 +689,8 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -817,20 +817,20 @@
       <c r="Q4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>1</v>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>1</v>
@@ -841,11 +841,11 @@
       <c r="Y4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>0</v>
+      <c r="Z4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
         <v>16.9</v>
@@ -968,8 +968,8 @@
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>1</v>
@@ -1090,14 +1090,14 @@
       <c r="V7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
+      <c r="W7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z7" s="3" t="n">
         <v>0</v>
@@ -1644,11 +1644,11 @@
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
+      <c r="G14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1698,8 +1698,8 @@
       <c r="X14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="3" t="n">
-        <v>0</v>
+      <c r="Y14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z14" s="3" t="n">
         <v>0</v>
@@ -1807,29 +1807,29 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>0</v>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>1</v>
@@ -1932,8 +1932,8 @@
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="n">
-        <v>1</v>
+      <c r="Q17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
       <c r="U17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>1</v>
+      <c r="V17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="3" t="n">
         <v>0</v>
@@ -2006,17 +2006,17 @@
       <c r="L18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>1</v>
+      <c r="M18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>0</v>
@@ -2208,8 +2208,8 @@
       <c r="V20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="2" t="n">
-        <v>1</v>
+      <c r="W20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="n">
         <v>0</v>
@@ -2510,8 +2510,8 @@
       <c r="H24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
+      <c r="I24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>1</v>
@@ -2558,8 +2558,8 @@
       <c r="X24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
+      <c r="Y24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="n">
         <v>0</v>
@@ -2590,8 +2590,8 @@
       <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>1</v>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1</v>
@@ -2810,14 +2810,14 @@
       <c r="V27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3" t="n">
-        <v>0</v>
+      <c r="W27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z27" s="3" t="n">
         <v>0</v>
@@ -3068,8 +3068,8 @@
       <c r="V30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="2" t="n">
-        <v>1</v>
+      <c r="W30" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X30" s="3" t="n">
         <v>0</v>
@@ -3269,11 +3269,11 @@
       <c r="C33" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>1</v>
@@ -3397,20 +3397,20 @@
       <c r="Q34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="3" t="n">
-        <v>0</v>
+      <c r="R34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>1</v>
@@ -3421,11 +3421,11 @@
       <c r="Y34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="2" t="n">
-        <v>1</v>
+      <c r="Z34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>16.9</v>
@@ -3450,8 +3450,8 @@
       <c r="F35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
+      <c r="G35" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1</v>
@@ -3545,8 +3545,8 @@
       <c r="I36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="2" t="n">
-        <v>1</v>
+      <c r="J36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -3637,8 +3637,8 @@
       <c r="K37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L37" s="2" t="n">
-        <v>1</v>
+      <c r="L37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>1</v>
@@ -3667,8 +3667,8 @@
       <c r="U37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V37" s="3" t="n">
-        <v>0</v>
+      <c r="V37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W37" s="2" t="n">
         <v>1</v>
@@ -3676,8 +3676,8 @@
       <c r="X37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y37" s="2" t="n">
-        <v>1</v>
+      <c r="Y37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z37" s="3" t="n">
         <v>0</v>
@@ -3726,17 +3726,17 @@
       <c r="L38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="2" t="n">
-        <v>1</v>
+      <c r="M38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>0</v>
@@ -3928,8 +3928,8 @@
       <c r="V40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W40" s="2" t="n">
-        <v>1</v>
+      <c r="W40" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X40" s="3" t="n">
         <v>0</v>
@@ -4129,8 +4129,8 @@
       <c r="C43" t="n">
         <v>8</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>0</v>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1</v>
@@ -4257,20 +4257,20 @@
       <c r="Q44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" s="2" t="n">
-        <v>1</v>
+      <c r="R44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W44" s="2" t="n">
         <v>1</v>
@@ -4278,14 +4278,14 @@
       <c r="X44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="3" t="n">
-        <v>0</v>
+      <c r="Y44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
         <v>16.9</v>
@@ -4512,8 +4512,8 @@
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" s="2" t="n">
-        <v>1</v>
+      <c r="Q47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="n">
         <v>0</v>
@@ -4527,14 +4527,14 @@
       <c r="U47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3" t="n">
-        <v>0</v>
+      <c r="V47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y47" s="3" t="n">
         <v>0</v>
@@ -4586,17 +4586,17 @@
       <c r="L48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="2" t="n">
-        <v>1</v>
+      <c r="M48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
       <c r="M49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>1</v>
+      <c r="N49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="n">
         <v>0</v>
@@ -4788,8 +4788,8 @@
       <c r="V50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W50" s="2" t="n">
-        <v>1</v>
+      <c r="W50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X50" s="3" t="n">
         <v>0</v>
@@ -4989,11 +4989,11 @@
       <c r="C53" t="n">
         <v>8</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>1</v>
+      <c r="D53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>1</v>
@@ -5058,8 +5058,8 @@
       <c r="Z53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA53" s="3" t="n">
-        <v>0</v>
+      <c r="AA53" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB53" t="n">
         <v>17.44754098360655</v>
@@ -5087,8 +5087,8 @@
       <c r="G54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="2" t="n">
-        <v>1</v>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>1</v>
@@ -5446,17 +5446,17 @@
       <c r="L58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="n">
-        <v>0</v>
+      <c r="M58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q58" s="3" t="n">
         <v>0</v>
@@ -5977,20 +5977,20 @@
       <c r="Q64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V64" s="2" t="n">
-        <v>1</v>
+      <c r="R64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W64" s="2" t="n">
         <v>1</v>
@@ -6001,11 +6001,11 @@
       <c r="Y64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="3" t="n">
-        <v>0</v>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB64" t="n">
         <v>16.9</v>
@@ -6030,8 +6030,8 @@
       <c r="F65" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>1</v>
+      <c r="G65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>1</v>
@@ -6250,14 +6250,14 @@
       <c r="V67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="3" t="n">
-        <v>0</v>
+      <c r="W67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z67" s="3" t="n">
         <v>0</v>
@@ -6306,17 +6306,17 @@
       <c r="L68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" s="2" t="n">
-        <v>1</v>
+      <c r="M68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q68" s="3" t="n">
         <v>0</v>
@@ -6709,11 +6709,11 @@
       <c r="C73" t="n">
         <v>8</v>
       </c>
-      <c r="D73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3" t="n">
-        <v>0</v>
+      <c r="D73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>1</v>
@@ -6778,8 +6778,8 @@
       <c r="Z73" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA73" s="2" t="n">
-        <v>1</v>
+      <c r="AA73" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
         <v>17.44754098360655</v>
@@ -6837,20 +6837,20 @@
       <c r="Q74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" s="3" t="n">
-        <v>0</v>
+      <c r="R74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W74" s="2" t="n">
         <v>1</v>
@@ -6861,11 +6861,11 @@
       <c r="Y74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2" t="n">
-        <v>1</v>
+      <c r="Z74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
         <v>16.9</v>
@@ -6890,8 +6890,8 @@
       <c r="F75" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G75" s="3" t="n">
-        <v>0</v>
+      <c r="G75" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>1</v>
@@ -6988,8 +6988,8 @@
       <c r="J76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="n">
-        <v>0</v>
+      <c r="K76" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L76" s="2" t="n">
         <v>1</v>
@@ -7110,14 +7110,14 @@
       <c r="V77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="3" t="n">
-        <v>0</v>
+      <c r="W77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z77" s="3" t="n">
         <v>0</v>
@@ -7166,17 +7166,17 @@
       <c r="L78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P78" s="2" t="n">
-        <v>1</v>
+      <c r="M78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q78" s="3" t="n">
         <v>0</v>
@@ -7368,8 +7368,8 @@
       <c r="V80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W80" s="2" t="n">
-        <v>1</v>
+      <c r="W80" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X80" s="3" t="n">
         <v>0</v>
@@ -7569,8 +7569,8 @@
       <c r="C83" t="n">
         <v>8</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
+      <c r="D83" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1</v>
@@ -7638,8 +7638,8 @@
       <c r="Z83" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA83" s="3" t="n">
-        <v>0</v>
+      <c r="AA83" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB83" t="n">
         <v>17.44754098360655</v>
@@ -7667,8 +7667,8 @@
       <c r="G84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H84" s="3" t="n">
-        <v>0</v>
+      <c r="H84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I84" s="2" t="n">
         <v>1</v>
@@ -7697,20 +7697,20 @@
       <c r="Q84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V84" s="2" t="n">
-        <v>1</v>
+      <c r="R84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W84" s="2" t="n">
         <v>1</v>
@@ -7721,11 +7721,11 @@
       <c r="Y84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="3" t="n">
-        <v>0</v>
+      <c r="Z84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB84" t="n">
         <v>16.9</v>
@@ -7970,14 +7970,14 @@
       <c r="V87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="2" t="n">
-        <v>1</v>
+      <c r="W87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z87" s="3" t="n">
         <v>0</v>
@@ -8228,8 +8228,8 @@
       <c r="V90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W90" s="2" t="n">
-        <v>1</v>
+      <c r="W90" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X90" s="3" t="n">
         <v>0</v>
@@ -8429,11 +8429,11 @@
       <c r="C93" t="n">
         <v>8</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>1</v>
+      <c r="D93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>1</v>
@@ -8498,8 +8498,8 @@
       <c r="Z93" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA93" s="2" t="n">
-        <v>1</v>
+      <c r="AA93" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB93" t="n">
         <v>17.44754098360655</v>
@@ -8578,8 +8578,8 @@
       <c r="X94" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y94" s="2" t="n">
-        <v>1</v>
+      <c r="Y94" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="n">
         <v>0</v>
@@ -8708,8 +8708,8 @@
       <c r="J96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K96" s="2" t="n">
-        <v>1</v>
+      <c r="K96" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>1</v>
@@ -8812,8 +8812,8 @@
       <c r="P97" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q97" s="2" t="n">
-        <v>1</v>
+      <c r="Q97" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="R97" s="3" t="n">
         <v>0</v>
@@ -8886,17 +8886,17 @@
       <c r="L98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" s="3" t="n">
-        <v>0</v>
+      <c r="M98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q98" s="3" t="n">
         <v>0</v>
@@ -9088,8 +9088,8 @@
       <c r="V100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W100" s="2" t="n">
-        <v>1</v>
+      <c r="W100" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -9554,8 +9554,8 @@
       <c r="T4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U4" s="3" t="n">
-        <v>0</v>
+      <c r="U4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="3" t="n">
         <v>0</v>
@@ -9672,11 +9672,11 @@
       <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0</v>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>0</v>
@@ -9785,8 +9785,8 @@
       <c r="T7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U7" s="2" t="n">
-        <v>1</v>
+      <c r="U7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V7" s="3" t="n">
         <v>0</v>
@@ -10276,14 +10276,14 @@
       <c r="D14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>1</v>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -10445,8 +10445,8 @@
       <c r="I16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>1</v>
+      <c r="J16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>0</v>
@@ -10552,8 +10552,8 @@
       <c r="S17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="2" t="n">
-        <v>1</v>
+      <c r="T17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="n">
         <v>0</v>
@@ -10602,8 +10602,8 @@
       <c r="J18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
+      <c r="K18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>0</v>
@@ -10786,8 +10786,8 @@
       <c r="T20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U20" s="2" t="n">
-        <v>1</v>
+      <c r="U20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="n">
         <v>0</v>
@@ -11052,11 +11052,11 @@
       <c r="F24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>1</v>
+      <c r="G24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>0</v>
@@ -11123,11 +11123,11 @@
       <c r="D25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>0</v>
@@ -11325,8 +11325,8 @@
       <c r="T27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U27" s="3" t="n">
-        <v>0</v>
+      <c r="U27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V27" s="3" t="n">
         <v>0</v>
@@ -11556,8 +11556,8 @@
       <c r="T30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U30" s="2" t="n">
-        <v>1</v>
+      <c r="U30" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V30" s="3" t="n">
         <v>0</v>
@@ -11731,13 +11731,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
+      <c r="D33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>0</v>
@@ -11864,8 +11864,8 @@
       <c r="T34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U34" s="2" t="n">
-        <v>1</v>
+      <c r="U34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="3" t="n">
         <v>0</v>
@@ -11893,11 +11893,11 @@
       <c r="D35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>1</v>
+      <c r="E35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>0</v>
@@ -11979,11 +11979,11 @@
       <c r="G36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>0</v>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J36" s="3" t="n">
         <v>0</v>
@@ -12062,11 +12062,11 @@
       <c r="I37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>0</v>
+      <c r="J37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -12092,11 +12092,11 @@
       <c r="S37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2" t="n">
-        <v>1</v>
+      <c r="T37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="3" t="n">
         <v>0</v>
@@ -12142,8 +12142,8 @@
       <c r="J38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="2" t="n">
-        <v>1</v>
+      <c r="K38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -12326,8 +12326,8 @@
       <c r="T40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U40" s="2" t="n">
-        <v>1</v>
+      <c r="U40" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="3" t="n">
         <v>0</v>
@@ -12501,10 +12501,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>0</v>
@@ -12634,8 +12634,8 @@
       <c r="T44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="n">
-        <v>0</v>
+      <c r="U44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V44" s="3" t="n">
         <v>0</v>
@@ -12862,8 +12862,8 @@
       <c r="S47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="n">
-        <v>0</v>
+      <c r="T47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U47" s="3" t="n">
         <v>0</v>
@@ -12912,8 +12912,8 @@
       <c r="J48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="2" t="n">
-        <v>1</v>
+      <c r="K48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>0</v>
@@ -12992,8 +12992,8 @@
       <c r="K49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="n">
-        <v>1</v>
+      <c r="L49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="n">
         <v>0</v>
@@ -13096,8 +13096,8 @@
       <c r="T50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U50" s="2" t="n">
-        <v>1</v>
+      <c r="U50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="3" t="n">
         <v>0</v>
@@ -13271,13 +13271,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="3" t="n">
-        <v>0</v>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>0</v>
@@ -13359,11 +13359,11 @@
       <c r="E54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3" t="n">
-        <v>0</v>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>0</v>
@@ -13682,8 +13682,8 @@
       <c r="J58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="n">
-        <v>0</v>
+      <c r="K58" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
         <v>0</v>
@@ -14174,8 +14174,8 @@
       <c r="T64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U64" s="3" t="n">
-        <v>0</v>
+      <c r="U64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V64" s="3" t="n">
         <v>0</v>
@@ -14203,11 +14203,11 @@
       <c r="D65" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>0</v>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G65" s="3" t="n">
         <v>0</v>
@@ -14405,8 +14405,8 @@
       <c r="T67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U67" s="3" t="n">
-        <v>0</v>
+      <c r="U67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V67" s="3" t="n">
         <v>0</v>
@@ -14452,8 +14452,8 @@
       <c r="J68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K68" s="2" t="n">
-        <v>1</v>
+      <c r="K68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L68" s="3" t="n">
         <v>0</v>
@@ -14811,13 +14811,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>1</v>
+      <c r="D73" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>0</v>
@@ -14944,8 +14944,8 @@
       <c r="T74" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U74" s="2" t="n">
-        <v>1</v>
+      <c r="U74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V74" s="3" t="n">
         <v>0</v>
@@ -14973,11 +14973,11 @@
       <c r="D75" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>1</v>
+      <c r="E75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>0</v>
@@ -15062,11 +15062,11 @@
       <c r="H76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="n">
-        <v>1</v>
+      <c r="I76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="n">
         <v>0</v>
@@ -15175,8 +15175,8 @@
       <c r="T77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U77" s="3" t="n">
-        <v>0</v>
+      <c r="U77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V77" s="3" t="n">
         <v>0</v>
@@ -15222,8 +15222,8 @@
       <c r="J78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K78" s="2" t="n">
-        <v>1</v>
+      <c r="K78" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
         <v>0</v>
@@ -15406,8 +15406,8 @@
       <c r="T80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U80" s="2" t="n">
-        <v>1</v>
+      <c r="U80" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V80" s="3" t="n">
         <v>0</v>
@@ -15581,10 +15581,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>0</v>
@@ -15669,11 +15669,11 @@
       <c r="E84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>1</v>
+      <c r="F84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H84" s="3" t="n">
         <v>0</v>
@@ -15714,8 +15714,8 @@
       <c r="T84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U84" s="3" t="n">
-        <v>0</v>
+      <c r="U84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V84" s="3" t="n">
         <v>0</v>
@@ -15945,8 +15945,8 @@
       <c r="T87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U87" s="2" t="n">
-        <v>1</v>
+      <c r="U87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="3" t="n">
         <v>0</v>
@@ -16176,8 +16176,8 @@
       <c r="T90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U90" s="2" t="n">
-        <v>1</v>
+      <c r="U90" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="3" t="n">
         <v>0</v>
@@ -16351,13 +16351,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="3" t="n">
-        <v>0</v>
+      <c r="D93" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>0</v>
@@ -16602,11 +16602,11 @@
       <c r="H96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="3" t="n">
-        <v>0</v>
+      <c r="I96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K96" s="3" t="n">
         <v>0</v>
@@ -16762,8 +16762,8 @@
       <c r="J98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K98" s="3" t="n">
-        <v>0</v>
+      <c r="K98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L98" s="3" t="n">
         <v>0</v>
@@ -16946,8 +16946,8 @@
       <c r="T100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U100" s="2" t="n">
-        <v>1</v>
+      <c r="U100" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="n">
         <v>0</v>
@@ -17385,8 +17385,8 @@
       <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
+      <c r="P4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>0</v>
@@ -17409,11 +17409,11 @@
       <c r="W4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
+      <c r="X4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -17489,8 +17489,8 @@
       <c r="X5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
+      <c r="Y5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -17566,8 +17566,8 @@
       <c r="X6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
+      <c r="Y6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -17640,11 +17640,11 @@
       <c r="W7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
+      <c r="X7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -17690,8 +17690,8 @@
       <c r="N8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>1</v>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>0</v>
@@ -17720,8 +17720,8 @@
       <c r="X8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
+      <c r="Y8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -17732,58 +17732,58 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="n">
         <v>0</v>
@@ -17791,14 +17791,14 @@
       <c r="V9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -17809,73 +17809,73 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -17886,73 +17886,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -18176,14 +18176,14 @@
       <c r="V14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="2" t="n">
-        <v>1</v>
+      <c r="W14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="2" t="n">
-        <v>1</v>
+      <c r="Y14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -18259,8 +18259,8 @@
       <c r="X15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y15" s="2" t="n">
-        <v>1</v>
+      <c r="Y15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -18333,11 +18333,11 @@
       <c r="W16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>1</v>
+      <c r="X16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -18383,11 +18383,11 @@
       <c r="N17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>1</v>
+      <c r="O17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0</v>
@@ -18407,14 +18407,14 @@
       <c r="V17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1</v>
+      <c r="W17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -18460,8 +18460,8 @@
       <c r="N18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O18" s="2" t="n">
-        <v>1</v>
+      <c r="O18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>0</v>
@@ -18490,8 +18490,8 @@
       <c r="X18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
+      <c r="Y18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -18502,58 +18502,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U19" s="3" t="n">
         <v>0</v>
@@ -18561,14 +18561,14 @@
       <c r="V19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
+      <c r="W19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -18579,73 +18579,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
+      <c r="V20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -18656,73 +18656,73 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -18946,14 +18946,14 @@
       <c r="V24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
+      <c r="W24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -19029,8 +19029,8 @@
       <c r="X25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
+      <c r="Y25" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -19103,11 +19103,11 @@
       <c r="W26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>1</v>
+      <c r="X26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -19156,8 +19156,8 @@
       <c r="O27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
-        <v>1</v>
+      <c r="P27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>0</v>
@@ -19183,8 +19183,8 @@
       <c r="X27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
+      <c r="Y27" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -19230,8 +19230,8 @@
       <c r="N28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O28" s="2" t="n">
-        <v>1</v>
+      <c r="O28" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>0</v>
@@ -19260,8 +19260,8 @@
       <c r="X28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y28" s="2" t="n">
-        <v>1</v>
+      <c r="Y28" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -19272,58 +19272,58 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="n">
         <v>0</v>
@@ -19331,14 +19331,14 @@
       <c r="V29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>1</v>
+      <c r="W29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -19349,73 +19349,73 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>1</v>
+      <c r="V30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -19426,73 +19426,73 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -19695,8 +19695,8 @@
       <c r="O34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P34" s="2" t="n">
-        <v>1</v>
+      <c r="P34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
@@ -19719,8 +19719,8 @@
       <c r="W34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X34" s="3" t="n">
-        <v>0</v>
+      <c r="X34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y34" s="3" t="n">
         <v>0</v>
@@ -19799,8 +19799,8 @@
       <c r="X35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y35" s="2" t="n">
-        <v>1</v>
+      <c r="Y35" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -19876,8 +19876,8 @@
       <c r="X36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y36" s="2" t="n">
-        <v>1</v>
+      <c r="Y36" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -19926,8 +19926,8 @@
       <c r="O37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
-        <v>1</v>
+      <c r="P37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
@@ -19947,14 +19947,14 @@
       <c r="V37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>1</v>
+      <c r="W37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -20000,8 +20000,8 @@
       <c r="N38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O38" s="2" t="n">
-        <v>1</v>
+      <c r="O38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>0</v>
@@ -20030,8 +20030,8 @@
       <c r="X38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y38" s="2" t="n">
-        <v>1</v>
+      <c r="Y38" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -20042,58 +20042,58 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U39" s="3" t="n">
         <v>0</v>
@@ -20101,14 +20101,14 @@
       <c r="V39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>1</v>
+      <c r="W39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -20119,73 +20119,73 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>1</v>
+      <c r="V40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -20196,73 +20196,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -20465,8 +20465,8 @@
       <c r="O44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="n">
-        <v>0</v>
+      <c r="P44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
@@ -20486,14 +20486,14 @@
       <c r="V44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W44" s="2" t="n">
-        <v>1</v>
+      <c r="W44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y44" s="2" t="n">
-        <v>1</v>
+      <c r="Y44" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -20569,8 +20569,8 @@
       <c r="X45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y45" s="2" t="n">
-        <v>1</v>
+      <c r="Y45" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -20646,8 +20646,8 @@
       <c r="X46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y46" s="2" t="n">
-        <v>1</v>
+      <c r="Y46" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -20693,11 +20693,11 @@
       <c r="N47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>1</v>
+      <c r="O47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>0</v>
@@ -20723,8 +20723,8 @@
       <c r="X47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y47" s="2" t="n">
-        <v>1</v>
+      <c r="Y47" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -20770,8 +20770,8 @@
       <c r="N48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O48" s="2" t="n">
-        <v>1</v>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>0</v>
@@ -20800,8 +20800,8 @@
       <c r="X48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y48" s="2" t="n">
-        <v>1</v>
+      <c r="Y48" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -20812,31 +20812,31 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -20847,23 +20847,23 @@
       <c r="N49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>1</v>
+      <c r="O49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="n">
         <v>0</v>
@@ -20871,14 +20871,14 @@
       <c r="V49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="2" t="n">
-        <v>1</v>
+      <c r="W49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -20889,73 +20889,73 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="2" t="n">
-        <v>1</v>
+      <c r="V50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -20966,73 +20966,73 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -21185,8 +21185,8 @@
       <c r="X53" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>1</v>
+      <c r="Y53" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -21339,8 +21339,8 @@
       <c r="X55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y55" s="2" t="n">
-        <v>1</v>
+      <c r="Y55" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -21416,8 +21416,8 @@
       <c r="X56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" s="2" t="n">
-        <v>1</v>
+      <c r="Y56" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -21490,11 +21490,11 @@
       <c r="W57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>1</v>
+      <c r="X57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -21570,8 +21570,8 @@
       <c r="X58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y58" s="2" t="n">
-        <v>1</v>
+      <c r="Y58" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -21582,58 +21582,58 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="n">
         <v>0</v>
@@ -21641,14 +21641,14 @@
       <c r="V59" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="2" t="n">
-        <v>1</v>
+      <c r="W59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -21659,73 +21659,73 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -21736,73 +21736,73 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -22005,8 +22005,8 @@
       <c r="O64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P64" s="3" t="n">
-        <v>0</v>
+      <c r="P64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q64" s="3" t="n">
         <v>0</v>
@@ -22029,11 +22029,11 @@
       <c r="W64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="2" t="n">
-        <v>1</v>
+      <c r="X64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -22109,8 +22109,8 @@
       <c r="X65" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" s="2" t="n">
-        <v>1</v>
+      <c r="Y65" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -22183,11 +22183,11 @@
       <c r="W66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="2" t="n">
-        <v>1</v>
+      <c r="X66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -22236,8 +22236,8 @@
       <c r="O67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="n">
-        <v>1</v>
+      <c r="P67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q67" s="3" t="n">
         <v>0</v>
@@ -22263,8 +22263,8 @@
       <c r="X67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" s="2" t="n">
-        <v>1</v>
+      <c r="Y67" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -22280,11 +22280,11 @@
       <c r="D68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2" t="n">
-        <v>1</v>
+      <c r="E68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G68" s="3" t="n">
         <v>0</v>
@@ -22310,8 +22310,8 @@
       <c r="N68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O68" s="2" t="n">
-        <v>1</v>
+      <c r="O68" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>0</v>
@@ -22340,8 +22340,8 @@
       <c r="X68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y68" s="2" t="n">
-        <v>1</v>
+      <c r="Y68" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -22352,58 +22352,58 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U69" s="3" t="n">
         <v>0</v>
@@ -22411,14 +22411,14 @@
       <c r="V69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="2" t="n">
-        <v>1</v>
+      <c r="W69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -22429,73 +22429,73 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -22506,73 +22506,73 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -22725,8 +22725,8 @@
       <c r="X73" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y73" s="3" t="n">
-        <v>0</v>
+      <c r="Y73" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -22775,8 +22775,8 @@
       <c r="O74" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P74" s="2" t="n">
-        <v>1</v>
+      <c r="P74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q74" s="3" t="n">
         <v>0</v>
@@ -22799,8 +22799,8 @@
       <c r="W74" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X74" s="3" t="n">
-        <v>0</v>
+      <c r="X74" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y74" s="3" t="n">
         <v>0</v>
@@ -22879,8 +22879,8 @@
       <c r="X75" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y75" s="2" t="n">
-        <v>1</v>
+      <c r="Y75" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -22956,8 +22956,8 @@
       <c r="X76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y76" s="2" t="n">
-        <v>1</v>
+      <c r="Y76" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -23006,8 +23006,8 @@
       <c r="O77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
-        <v>1</v>
+      <c r="P77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q77" s="3" t="n">
         <v>0</v>
@@ -23033,8 +23033,8 @@
       <c r="X77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" s="2" t="n">
-        <v>1</v>
+      <c r="Y77" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -23080,8 +23080,8 @@
       <c r="N78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O78" s="2" t="n">
-        <v>1</v>
+      <c r="O78" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>0</v>
@@ -23110,8 +23110,8 @@
       <c r="X78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y78" s="2" t="n">
-        <v>1</v>
+      <c r="Y78" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -23122,58 +23122,58 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U79" s="3" t="n">
         <v>0</v>
@@ -23181,14 +23181,14 @@
       <c r="V79" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="2" t="n">
-        <v>1</v>
+      <c r="W79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -23199,73 +23199,73 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="2" t="n">
-        <v>1</v>
+      <c r="V80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -23276,73 +23276,73 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -23495,8 +23495,8 @@
       <c r="X83" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y83" s="2" t="n">
-        <v>1</v>
+      <c r="Y83" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -23545,8 +23545,8 @@
       <c r="O84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P84" s="3" t="n">
-        <v>0</v>
+      <c r="P84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q84" s="3" t="n">
         <v>0</v>
@@ -23569,11 +23569,11 @@
       <c r="W84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="2" t="n">
-        <v>1</v>
+      <c r="X84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -23649,8 +23649,8 @@
       <c r="X85" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y85" s="2" t="n">
-        <v>1</v>
+      <c r="Y85" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -23726,8 +23726,8 @@
       <c r="X86" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y86" s="2" t="n">
-        <v>1</v>
+      <c r="Y86" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -23776,8 +23776,8 @@
       <c r="O87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
-        <v>1</v>
+      <c r="P87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q87" s="3" t="n">
         <v>0</v>
@@ -23800,11 +23800,11 @@
       <c r="W87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="2" t="n">
-        <v>1</v>
+      <c r="X87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -23850,8 +23850,8 @@
       <c r="N88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O88" s="2" t="n">
-        <v>1</v>
+      <c r="O88" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>0</v>
@@ -23880,8 +23880,8 @@
       <c r="X88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y88" s="2" t="n">
-        <v>1</v>
+      <c r="Y88" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -23892,58 +23892,58 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="n">
         <v>0</v>
@@ -23951,14 +23951,14 @@
       <c r="V89" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="2" t="n">
-        <v>1</v>
+      <c r="W89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -23969,73 +23969,73 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y90" s="2" t="n">
-        <v>1</v>
+      <c r="V90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -24046,73 +24046,73 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y91" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -24265,8 +24265,8 @@
       <c r="X93" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y93" s="3" t="n">
-        <v>0</v>
+      <c r="Y93" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -24336,14 +24336,14 @@
       <c r="V94" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y94" s="2" t="n">
-        <v>1</v>
+      <c r="W94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -24419,8 +24419,8 @@
       <c r="X95" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y95" s="2" t="n">
-        <v>1</v>
+      <c r="Y95" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -24496,8 +24496,8 @@
       <c r="X96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y96" s="2" t="n">
-        <v>1</v>
+      <c r="Y96" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -24543,11 +24543,11 @@
       <c r="N97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" s="2" t="n">
-        <v>1</v>
+      <c r="O97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q97" s="3" t="n">
         <v>0</v>
@@ -24570,11 +24570,11 @@
       <c r="W97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X97" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y97" s="2" t="n">
-        <v>1</v>
+      <c r="X97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -24617,8 +24617,8 @@
       <c r="M98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N98" s="2" t="n">
-        <v>1</v>
+      <c r="N98" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="O98" s="2" t="n">
         <v>1</v>
@@ -24650,8 +24650,8 @@
       <c r="X98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y98" s="2" t="n">
-        <v>1</v>
+      <c r="Y98" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -24662,58 +24662,58 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T99" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U99" s="3" t="n">
         <v>0</v>
@@ -24721,14 +24721,14 @@
       <c r="V99" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="2" t="n">
-        <v>1</v>
+      <c r="W99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -24739,73 +24739,73 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T100" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y100" s="2" t="n">
-        <v>1</v>
+      <c r="V100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -24816,73 +24816,73 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y101" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25121,10 +25121,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D3" t="n">
         <v>455</v>
@@ -25169,28 +25169,28 @@
         <v>395</v>
       </c>
       <c r="R3" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="S3" t="n">
+        <v>437</v>
+      </c>
+      <c r="T3" t="n">
+        <v>455</v>
+      </c>
+      <c r="U3" t="n">
+        <v>455</v>
+      </c>
+      <c r="V3" t="n">
+        <v>455</v>
+      </c>
+      <c r="W3" t="n">
         <v>454</v>
       </c>
-      <c r="T3" t="n">
-        <v>455</v>
-      </c>
-      <c r="U3" t="n">
-        <v>455</v>
-      </c>
-      <c r="V3" t="n">
-        <v>455</v>
-      </c>
-      <c r="W3" t="n">
-        <v>455</v>
-      </c>
       <c r="X3" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Y3" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="Z3" t="n">
         <v>7500</v>
@@ -25243,19 +25243,19 @@
         <v>130</v>
       </c>
       <c r="P4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>130</v>
@@ -25267,10 +25267,10 @@
         <v>130</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Z4" t="n">
         <v>8466</v>
@@ -25329,7 +25329,7 @@
         <v>130</v>
       </c>
       <c r="R5" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S5" t="n">
         <v>130</v>
@@ -25382,10 +25382,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>134.6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K6" t="n">
         <v>162</v>
@@ -25403,10 +25403,10 @@
         <v>162</v>
       </c>
       <c r="P6" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="Q6" t="n">
-        <v>47.2</v>
+        <v>42</v>
       </c>
       <c r="R6" t="n">
         <v>25</v>
@@ -25498,13 +25498,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -25921,22 +25921,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>394.9999843457424</v>
+        <v>455</v>
       </c>
       <c r="C13" t="n">
-        <v>454.9999843457418</v>
+        <v>433</v>
       </c>
       <c r="D13" t="n">
-        <v>394.9999843457418</v>
+        <v>455</v>
       </c>
       <c r="E13" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="F13" t="n">
         <v>455</v>
       </c>
       <c r="G13" t="n">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="H13" t="n">
         <v>455</v>
@@ -25969,10 +25969,10 @@
         <v>395</v>
       </c>
       <c r="R13" t="n">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="S13" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="T13" t="n">
         <v>455</v>
@@ -25990,7 +25990,7 @@
         <v>455</v>
       </c>
       <c r="Y13" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="Z13" t="n">
         <v>14127</v>
@@ -26010,13 +26010,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G14" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H14" t="n">
         <v>130</v>
@@ -26046,10 +26046,10 @@
         <v>130</v>
       </c>
       <c r="Q14" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="R14" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S14" t="n">
         <v>130</v>
@@ -26064,7 +26064,7 @@
         <v>130</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -26161,28 +26161,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J16" t="n">
         <v>162</v>
@@ -26203,19 +26203,19 @@
         <v>162</v>
       </c>
       <c r="P16" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.2</v>
+        <v>42</v>
       </c>
       <c r="R16" t="n">
         <v>25</v>
       </c>
       <c r="S16" t="n">
-        <v>47.2</v>
+        <v>85</v>
       </c>
       <c r="T16" t="n">
-        <v>107.2</v>
+        <v>145</v>
       </c>
       <c r="U16" t="n">
         <v>162</v>
@@ -26280,7 +26280,7 @@
         <v>80</v>
       </c>
       <c r="O17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -26295,13 +26295,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26348,16 +26348,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -26458,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -26538,7 +26538,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26721,10 +26721,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="C23" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="D23" t="n">
         <v>455</v>
@@ -26769,10 +26769,10 @@
         <v>395</v>
       </c>
       <c r="R23" t="n">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="S23" t="n">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="T23" t="n">
         <v>455</v>
@@ -26816,7 +26816,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H24" t="n">
         <v>130</v>
@@ -26846,10 +26846,10 @@
         <v>130</v>
       </c>
       <c r="Q24" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R24" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S24" t="n">
         <v>130</v>
@@ -26864,7 +26864,7 @@
         <v>130</v>
       </c>
       <c r="W24" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>130</v>
@@ -26929,7 +26929,7 @@
         <v>130</v>
       </c>
       <c r="R25" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S25" t="n">
         <v>130</v>
@@ -26982,7 +26982,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>134.6</v>
+        <v>162</v>
       </c>
       <c r="J26" t="n">
         <v>162</v>
@@ -27003,19 +27003,19 @@
         <v>162</v>
       </c>
       <c r="P26" t="n">
-        <v>107.2</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="n">
-        <v>47.2</v>
+        <v>63</v>
       </c>
       <c r="R26" t="n">
         <v>25</v>
       </c>
       <c r="S26" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="T26" t="n">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="U26" t="n">
         <v>162</v>
@@ -27095,13 +27095,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -27500,19 +27500,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D33" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="E33" t="n">
         <v>455</v>
       </c>
       <c r="F33" t="n">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="G33" t="n">
         <v>455</v>
@@ -27548,10 +27548,10 @@
         <v>395</v>
       </c>
       <c r="R33" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S33" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T33" t="n">
         <v>455</v>
@@ -27569,7 +27569,7 @@
         <v>455</v>
       </c>
       <c r="Y33" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34">
@@ -27619,19 +27619,19 @@
         <v>130</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U34" t="n">
         <v>130</v>
@@ -27643,10 +27643,10 @@
         <v>130</v>
       </c>
       <c r="X34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
         <v>130</v>
@@ -27702,7 +27702,7 @@
         <v>130</v>
       </c>
       <c r="R35" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S35" t="n">
         <v>130</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>134.6</v>
+        <v>107</v>
       </c>
       <c r="J36" t="n">
         <v>162</v>
@@ -27773,19 +27773,19 @@
         <v>162</v>
       </c>
       <c r="P36" t="n">
-        <v>107.2</v>
+        <v>145</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.2</v>
+        <v>85</v>
       </c>
       <c r="R36" t="n">
         <v>25</v>
       </c>
       <c r="S36" t="n">
-        <v>45.8</v>
+        <v>42</v>
       </c>
       <c r="T36" t="n">
-        <v>105.8</v>
+        <v>102</v>
       </c>
       <c r="U36" t="n">
         <v>162</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>80</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U37" t="n">
         <v>80</v>
       </c>
       <c r="V37" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="W37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -28270,10 +28270,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C43" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="D43" t="n">
         <v>455</v>
@@ -28318,10 +28318,10 @@
         <v>395</v>
       </c>
       <c r="R43" t="n">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="S43" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="T43" t="n">
         <v>455</v>
@@ -28389,19 +28389,19 @@
         <v>130</v>
       </c>
       <c r="P44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>130</v>
@@ -28410,13 +28410,13 @@
         <v>130</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -28472,7 +28472,7 @@
         <v>130</v>
       </c>
       <c r="R45" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="S45" t="n">
         <v>130</v>
@@ -28522,7 +28522,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>156.6</v>
+        <v>162</v>
       </c>
       <c r="J46" t="n">
         <v>162</v>
@@ -28543,10 +28543,10 @@
         <v>162</v>
       </c>
       <c r="P46" t="n">
-        <v>107.2</v>
+        <v>145</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.2</v>
+        <v>85</v>
       </c>
       <c r="R46" t="n">
         <v>25</v>
@@ -28617,7 +28617,7 @@
         <v>80</v>
       </c>
       <c r="O47" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -28632,13 +28632,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -28682,16 +28682,16 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -28762,13 +28762,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -29040,10 +29040,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>455</v>
@@ -29088,10 +29088,10 @@
         <v>395</v>
       </c>
       <c r="R53" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S53" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T53" t="n">
         <v>455</v>
@@ -29109,7 +29109,7 @@
         <v>455</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>130</v>
@@ -29242,7 +29242,7 @@
         <v>130</v>
       </c>
       <c r="R55" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S55" t="n">
         <v>130</v>
@@ -29313,10 +29313,10 @@
         <v>162</v>
       </c>
       <c r="P56" t="n">
-        <v>107.2</v>
+        <v>145</v>
       </c>
       <c r="Q56" t="n">
-        <v>47.2</v>
+        <v>85</v>
       </c>
       <c r="R56" t="n">
         <v>25</v>
@@ -29452,16 +29452,16 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -29810,10 +29810,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="C63" t="n">
-        <v>402.0000156542417</v>
+        <v>455</v>
       </c>
       <c r="D63" t="n">
         <v>455</v>
@@ -29858,10 +29858,10 @@
         <v>395</v>
       </c>
       <c r="R63" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S63" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T63" t="n">
         <v>455</v>
@@ -29873,10 +29873,10 @@
         <v>455</v>
       </c>
       <c r="W63" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="X63" t="n">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="Y63" t="n">
         <v>455</v>
@@ -29929,19 +29929,19 @@
         <v>130</v>
       </c>
       <c r="P64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>130</v>
@@ -29953,10 +29953,10 @@
         <v>130</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>130</v>
@@ -30083,10 +30083,10 @@
         <v>162</v>
       </c>
       <c r="P66" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="Q66" t="n">
-        <v>47.2</v>
+        <v>42</v>
       </c>
       <c r="R66" t="n">
         <v>25</v>
@@ -30175,13 +30175,13 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -30222,16 +30222,16 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -30580,16 +30580,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D73" t="n">
         <v>455</v>
       </c>
       <c r="E73" t="n">
-        <v>431.5</v>
+        <v>455</v>
       </c>
       <c r="F73" t="n">
         <v>455</v>
@@ -30628,10 +30628,10 @@
         <v>395</v>
       </c>
       <c r="R73" t="n">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="S73" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="T73" t="n">
         <v>455</v>
@@ -30649,7 +30649,7 @@
         <v>455</v>
       </c>
       <c r="Y73" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -30699,19 +30699,19 @@
         <v>130</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U74" t="n">
         <v>130</v>
@@ -30723,10 +30723,10 @@
         <v>130</v>
       </c>
       <c r="X74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -30743,7 +30743,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F75" t="n">
         <v>130</v>
@@ -30782,7 +30782,7 @@
         <v>130</v>
       </c>
       <c r="R75" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S75" t="n">
         <v>130</v>
@@ -30832,7 +30832,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J76" t="n">
         <v>162</v>
@@ -30853,10 +30853,10 @@
         <v>162</v>
       </c>
       <c r="P76" t="n">
-        <v>107.2</v>
+        <v>145</v>
       </c>
       <c r="Q76" t="n">
-        <v>47.2</v>
+        <v>85</v>
       </c>
       <c r="R76" t="n">
         <v>25</v>
@@ -30945,13 +30945,13 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -30992,16 +30992,16 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -31350,13 +31350,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>451.0000156542577</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>455</v>
       </c>
       <c r="D83" t="n">
-        <v>396.0000156542609</v>
+        <v>455</v>
       </c>
       <c r="E83" t="n">
         <v>455</v>
@@ -31398,10 +31398,10 @@
         <v>395</v>
       </c>
       <c r="R83" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S83" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T83" t="n">
         <v>455</v>
@@ -31419,7 +31419,7 @@
         <v>455</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84">
@@ -31439,7 +31439,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G84" t="n">
         <v>130</v>
@@ -31469,19 +31469,19 @@
         <v>130</v>
       </c>
       <c r="P84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>130</v>
@@ -31493,10 +31493,10 @@
         <v>130</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
@@ -31623,19 +31623,19 @@
         <v>162</v>
       </c>
       <c r="P86" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="Q86" t="n">
-        <v>47.2</v>
+        <v>42</v>
       </c>
       <c r="R86" t="n">
         <v>25</v>
       </c>
       <c r="S86" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="T86" t="n">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="U86" t="n">
         <v>162</v>
@@ -31715,13 +31715,13 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -31946,7 +31946,7 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -32120,10 +32120,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>455</v>
@@ -32168,10 +32168,10 @@
         <v>395</v>
       </c>
       <c r="R93" t="n">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="S93" t="n">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="T93" t="n">
         <v>455</v>
@@ -32189,7 +32189,7 @@
         <v>455</v>
       </c>
       <c r="Y93" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -32242,10 +32242,10 @@
         <v>130</v>
       </c>
       <c r="Q94" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="R94" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S94" t="n">
         <v>130</v>
@@ -32260,7 +32260,7 @@
         <v>130</v>
       </c>
       <c r="W94" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
@@ -32372,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>134.6</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>162</v>
@@ -32393,10 +32393,10 @@
         <v>162</v>
       </c>
       <c r="P96" t="n">
-        <v>108.2</v>
+        <v>102</v>
       </c>
       <c r="Q96" t="n">
-        <v>48.2</v>
+        <v>42</v>
       </c>
       <c r="R96" t="n">
         <v>25</v>
@@ -32467,7 +32467,7 @@
         <v>80</v>
       </c>
       <c r="O97" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -32532,16 +32532,16 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -32716,7 +32716,7 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -32896,16 +32896,16 @@
         <v>3000</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>300</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -32913,19 +32913,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -32933,19 +32933,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -32953,19 +32953,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>300</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -32973,19 +32973,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0</v>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -32993,7 +32993,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -33013,7 +33013,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -33033,122 +33033,122 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
+      <c r="F10" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3000</v>
+        <v>4426</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
+      <c r="F11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3000</v>
+        <v>4126</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
+      <c r="F12" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3000</v>
+        <v>3826</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
+      <c r="F13" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3000</v>
+        <v>3526</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
+      <c r="F14" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3000</v>
+        <v>3226</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
+      <c r="F15" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -33159,21 +33159,21 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
+      <c r="F16" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -33193,7 +33193,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -33213,67 +33213,67 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
+      <c r="F19" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3000</v>
+        <v>2820</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="n">
-        <v>0</v>
+      <c r="F20" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="n">
-        <v>0</v>
+      <c r="F21" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -33293,7 +33293,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -33313,19 +33313,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>300</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
@@ -33333,19 +33333,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>300</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>0</v>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,11 @@
           <t>平均单位发电成本</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>启停成本</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -677,6 +682,9 @@
       </c>
       <c r="AB2" t="n">
         <v>16.48039344262295</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="3">
@@ -689,8 +697,8 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -763,6 +771,9 @@
       </c>
       <c r="AB3" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
@@ -790,11 +801,11 @@
       <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1</v>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>1</v>
@@ -849,6 +860,9 @@
       </c>
       <c r="AB4" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="5">
@@ -936,6 +950,9 @@
       <c r="AB5" t="n">
         <v>16.81654545454545</v>
       </c>
+      <c r="AC5" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -968,8 +985,8 @@
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>1</v>
@@ -1010,17 +1027,20 @@
       <c r="X6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>0</v>
+      <c r="Y6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AA6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="7">
@@ -1054,11 +1074,11 @@
       <c r="J7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
+      <c r="K7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>1</v>
@@ -1072,11 +1092,11 @@
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>0</v>
+      <c r="Q7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S7" s="3" t="n">
         <v>0</v>
@@ -1090,14 +1110,14 @@
       <c r="V7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>0</v>
+      <c r="W7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z7" s="3" t="n">
         <v>0</v>
@@ -1107,6 +1127,9 @@
       </c>
       <c r="AB7" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="8">
@@ -1143,23 +1166,23 @@
       <c r="K8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
+      <c r="L8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1193,6 +1216,9 @@
       </c>
       <c r="AB8" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="9">
@@ -1232,17 +1258,17 @@
       <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>0</v>
+      <c r="M9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
@@ -1265,8 +1291,8 @@
       <c r="W9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X9" s="3" t="n">
-        <v>0</v>
+      <c r="X9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y9" s="3" t="n">
         <v>0</v>
@@ -1279,6 +1305,9 @@
       </c>
       <c r="AB9" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1318,17 +1347,17 @@
       <c r="L10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>0</v>
+      <c r="M10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>0</v>
@@ -1348,8 +1377,8 @@
       <c r="V10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="n">
-        <v>0</v>
+      <c r="W10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X10" s="3" t="n">
         <v>0</v>
@@ -1365,6 +1394,9 @@
       </c>
       <c r="AB10" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1452,6 +1484,9 @@
       <c r="AB11" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1538,6 +1573,9 @@
       <c r="AB12" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC12" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1624,6 +1662,9 @@
       <c r="AB13" t="n">
         <v>17.44754098360655</v>
       </c>
+      <c r="AC13" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1644,11 +1685,11 @@
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1</v>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1677,20 +1718,20 @@
       <c r="Q14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>1</v>
+      <c r="R14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>1</v>
@@ -1701,14 +1742,17 @@
       <c r="Y14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="n">
-        <v>0</v>
+      <c r="Z14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="15">
@@ -1730,8 +1774,8 @@
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>1</v>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1</v>
@@ -1795,6 +1839,9 @@
       </c>
       <c r="AB15" t="n">
         <v>16.81654545454545</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="16">
@@ -1807,20 +1854,20 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1</v>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1881,6 +1928,9 @@
       </c>
       <c r="AB16" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="17">
@@ -1914,11 +1964,11 @@
       <c r="J17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>0</v>
+      <c r="K17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
@@ -1932,8 +1982,8 @@
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="3" t="n">
-        <v>0</v>
+      <c r="Q17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1950,14 +2000,14 @@
       <c r="V17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3" t="n">
-        <v>0</v>
+      <c r="W17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z17" s="3" t="n">
         <v>0</v>
@@ -1967,6 +2017,9 @@
       </c>
       <c r="AB17" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="18">
@@ -2003,20 +2056,20 @@
       <c r="K18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>0</v>
+      <c r="L18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>0</v>
@@ -2053,6 +2106,9 @@
       </c>
       <c r="AB18" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="19">
@@ -2092,17 +2148,17 @@
       <c r="L19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
+      <c r="M19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
@@ -2139,6 +2195,9 @@
       </c>
       <c r="AB19" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -2208,8 +2267,8 @@
       <c r="V20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="n">
-        <v>0</v>
+      <c r="W20" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X20" s="3" t="n">
         <v>0</v>
@@ -2225,6 +2284,9 @@
       </c>
       <c r="AB20" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -2312,6 +2374,9 @@
       <c r="AB21" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC21" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2398,6 +2463,9 @@
       <c r="AB22" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC22" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2484,6 +2552,9 @@
       <c r="AB23" t="n">
         <v>17.44754098360655</v>
       </c>
+      <c r="AC23" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2558,8 +2629,8 @@
       <c r="X24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" s="3" t="n">
-        <v>0</v>
+      <c r="Y24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z24" s="3" t="n">
         <v>0</v>
@@ -2569,6 +2640,9 @@
       </c>
       <c r="AB24" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="25">
@@ -2590,8 +2664,8 @@
       <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
+      <c r="G25" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1</v>
@@ -2655,6 +2729,9 @@
       </c>
       <c r="AB25" t="n">
         <v>16.81654545454545</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="26">
@@ -2673,20 +2750,20 @@
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>0</v>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -2741,6 +2818,9 @@
       </c>
       <c r="AB26" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="27">
@@ -2777,8 +2857,8 @@
       <c r="K27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="n">
-        <v>0</v>
+      <c r="L27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>1</v>
@@ -2792,11 +2872,11 @@
       <c r="P27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="n">
-        <v>0</v>
+      <c r="Q27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S27" s="3" t="n">
         <v>0</v>
@@ -2807,8 +2887,8 @@
       <c r="U27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="3" t="n">
-        <v>0</v>
+      <c r="V27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W27" s="2" t="n">
         <v>1</v>
@@ -2816,8 +2896,8 @@
       <c r="X27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
+      <c r="Y27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z27" s="3" t="n">
         <v>0</v>
@@ -2827,6 +2907,9 @@
       </c>
       <c r="AB27" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="28">
@@ -2866,17 +2949,17 @@
       <c r="L28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>0</v>
+      <c r="M28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>0</v>
@@ -2913,6 +2996,9 @@
       </c>
       <c r="AB28" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="29">
@@ -2952,17 +3038,17 @@
       <c r="L29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>0</v>
+      <c r="M29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>0</v>
@@ -2999,6 +3085,9 @@
       </c>
       <c r="AB29" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -3068,8 +3157,8 @@
       <c r="V30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="3" t="n">
-        <v>0</v>
+      <c r="W30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X30" s="3" t="n">
         <v>0</v>
@@ -3085,6 +3174,9 @@
       </c>
       <c r="AB30" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -3172,6 +3264,9 @@
       <c r="AB31" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3258,6 +3353,9 @@
       <c r="AB32" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC32" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3344,6 +3442,9 @@
       <c r="AB33" t="n">
         <v>17.44754098360655</v>
       </c>
+      <c r="AC33" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3397,20 +3498,20 @@
       <c r="Q34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" s="2" t="n">
-        <v>1</v>
+      <c r="R34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>1</v>
@@ -3421,14 +3522,17 @@
       <c r="Y34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="3" t="n">
-        <v>0</v>
+      <c r="Z34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="35">
@@ -3516,6 +3620,9 @@
       <c r="AB35" t="n">
         <v>16.81654545454545</v>
       </c>
+      <c r="AC35" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3533,20 +3640,20 @@
       <c r="E36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>0</v>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1</v>
@@ -3590,17 +3697,20 @@
       <c r="X36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3" t="n">
-        <v>0</v>
+      <c r="Y36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AA36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="37">
@@ -3634,11 +3744,11 @@
       <c r="J37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>0</v>
+      <c r="K37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>1</v>
@@ -3652,11 +3762,11 @@
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>0</v>
+      <c r="Q37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S37" s="3" t="n">
         <v>0</v>
@@ -3687,6 +3797,9 @@
       </c>
       <c r="AB37" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -3726,20 +3839,20 @@
       <c r="L38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3" t="n">
-        <v>0</v>
+      <c r="M38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>0</v>
@@ -3756,14 +3869,14 @@
       <c r="V38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3" t="n">
-        <v>0</v>
+      <c r="W38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z38" s="3" t="n">
         <v>0</v>
@@ -3773,6 +3886,9 @@
       </c>
       <c r="AB38" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="39">
@@ -3812,17 +3928,17 @@
       <c r="L39" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>0</v>
+      <c r="M39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>0</v>
@@ -3859,6 +3975,9 @@
       </c>
       <c r="AB39" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -3898,17 +4017,17 @@
       <c r="L40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>0</v>
+      <c r="M40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0</v>
@@ -3928,8 +4047,8 @@
       <c r="V40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W40" s="3" t="n">
-        <v>0</v>
+      <c r="W40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X40" s="3" t="n">
         <v>0</v>
@@ -3945,6 +4064,9 @@
       </c>
       <c r="AB40" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -4032,6 +4154,9 @@
       <c r="AB41" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC41" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4118,6 +4243,9 @@
       <c r="AB42" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC42" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4129,8 +4257,8 @@
       <c r="C43" t="n">
         <v>8</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
+      <c r="D43" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1</v>
@@ -4203,6 +4331,9 @@
       </c>
       <c r="AB43" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="44">
@@ -4227,8 +4358,8 @@
       <c r="G44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="n">
-        <v>0</v>
+      <c r="H44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
@@ -4257,20 +4388,20 @@
       <c r="Q44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="n">
-        <v>0</v>
+      <c r="R44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W44" s="2" t="n">
         <v>1</v>
@@ -4278,17 +4409,20 @@
       <c r="X44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="2" t="n">
-        <v>1</v>
+      <c r="Y44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="45">
@@ -4376,6 +4510,9 @@
       <c r="AB45" t="n">
         <v>16.81654545454545</v>
       </c>
+      <c r="AC45" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4393,20 +4530,20 @@
       <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>0</v>
+      <c r="F46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -4450,17 +4587,20 @@
       <c r="X46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3" t="n">
-        <v>0</v>
+      <c r="Y46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AA46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="47">
@@ -4497,8 +4637,8 @@
       <c r="K47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="n">
-        <v>0</v>
+      <c r="L47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>1</v>
@@ -4512,11 +4652,11 @@
       <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>0</v>
+      <c r="Q47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S47" s="3" t="n">
         <v>0</v>
@@ -4547,6 +4687,9 @@
       </c>
       <c r="AB47" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="48">
@@ -4586,20 +4729,20 @@
       <c r="L48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="n">
-        <v>0</v>
+      <c r="M48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R48" s="3" t="n">
         <v>0</v>
@@ -4616,14 +4759,14 @@
       <c r="V48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="n">
-        <v>0</v>
+      <c r="W48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z48" s="3" t="n">
         <v>0</v>
@@ -4633,6 +4776,9 @@
       </c>
       <c r="AB48" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="49">
@@ -4672,17 +4818,17 @@
       <c r="L49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="n">
-        <v>0</v>
+      <c r="M49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q49" s="3" t="n">
         <v>0</v>
@@ -4719,6 +4865,9 @@
       </c>
       <c r="AB49" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -4758,17 +4907,17 @@
       <c r="L50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3" t="n">
-        <v>0</v>
+      <c r="M50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
@@ -4788,8 +4937,8 @@
       <c r="V50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W50" s="3" t="n">
-        <v>0</v>
+      <c r="W50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X50" s="3" t="n">
         <v>0</v>
@@ -4805,6 +4954,9 @@
       </c>
       <c r="AB50" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -4892,6 +5044,9 @@
       <c r="AB51" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC51" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4978,6 +5133,9 @@
       <c r="AB52" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC52" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4989,11 +5147,11 @@
       <c r="C53" t="n">
         <v>8</v>
       </c>
-      <c r="D53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>0</v>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>1</v>
@@ -5063,6 +5221,9 @@
       </c>
       <c r="AB53" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="54">
@@ -5117,20 +5278,20 @@
       <c r="Q54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3" t="n">
-        <v>0</v>
+      <c r="R54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W54" s="2" t="n">
         <v>1</v>
@@ -5138,17 +5299,20 @@
       <c r="X54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>1</v>
+      <c r="Y54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="55">
@@ -5170,8 +5334,8 @@
       <c r="F55" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>1</v>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>1</v>
@@ -5235,6 +5399,9 @@
       </c>
       <c r="AB55" t="n">
         <v>16.81654545454545</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="56">
@@ -5253,23 +5420,23 @@
       <c r="E56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>0</v>
+      <c r="F56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L56" s="2" t="n">
         <v>1</v>
@@ -5310,17 +5477,20 @@
       <c r="X56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="3" t="n">
-        <v>0</v>
+      <c r="Y56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AA56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AB56" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="57">
@@ -5354,11 +5524,11 @@
       <c r="J57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="n">
-        <v>0</v>
+      <c r="K57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>1</v>
@@ -5372,8 +5542,8 @@
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" s="3" t="n">
-        <v>0</v>
+      <c r="Q57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R57" s="3" t="n">
         <v>0</v>
@@ -5387,14 +5557,14 @@
       <c r="U57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3" t="n">
-        <v>0</v>
+      <c r="V57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y57" s="3" t="n">
         <v>0</v>
@@ -5407,6 +5577,9 @@
       </c>
       <c r="AB57" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="58">
@@ -5476,14 +5649,14 @@
       <c r="V58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3" t="n">
-        <v>0</v>
+      <c r="W58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z58" s="3" t="n">
         <v>0</v>
@@ -5493,6 +5666,9 @@
       </c>
       <c r="AB58" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="59">
@@ -5532,17 +5708,17 @@
       <c r="L59" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="n">
-        <v>0</v>
+      <c r="M59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>0</v>
@@ -5579,6 +5755,9 @@
       </c>
       <c r="AB59" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -5648,8 +5827,8 @@
       <c r="V60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="n">
-        <v>0</v>
+      <c r="W60" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X60" s="3" t="n">
         <v>0</v>
@@ -5665,6 +5844,9 @@
       </c>
       <c r="AB60" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
@@ -5752,6 +5934,9 @@
       <c r="AB61" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5838,6 +6023,9 @@
       <c r="AB62" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC62" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5924,6 +6112,9 @@
       <c r="AB63" t="n">
         <v>17.44754098360655</v>
       </c>
+      <c r="AC63" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5977,20 +6168,20 @@
       <c r="Q64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" s="3" t="n">
-        <v>0</v>
+      <c r="R64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W64" s="2" t="n">
         <v>1</v>
@@ -5998,17 +6189,20 @@
       <c r="X64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>1</v>
+      <c r="Y64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="65">
@@ -6030,8 +6224,8 @@
       <c r="F65" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="3" t="n">
-        <v>0</v>
+      <c r="G65" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>1</v>
@@ -6095,6 +6289,9 @@
       </c>
       <c r="AB65" t="n">
         <v>16.81654545454545</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="66">
@@ -6113,23 +6310,23 @@
       <c r="E66" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="n">
-        <v>0</v>
+      <c r="F66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L66" s="2" t="n">
         <v>1</v>
@@ -6181,6 +6378,9 @@
       </c>
       <c r="AB66" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="67">
@@ -6217,8 +6417,8 @@
       <c r="K67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L67" s="3" t="n">
-        <v>0</v>
+      <c r="L67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M67" s="2" t="n">
         <v>1</v>
@@ -6232,11 +6432,11 @@
       <c r="P67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="3" t="n">
-        <v>0</v>
+      <c r="Q67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S67" s="3" t="n">
         <v>0</v>
@@ -6267,6 +6467,9 @@
       </c>
       <c r="AB67" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="68">
@@ -6306,20 +6509,20 @@
       <c r="L68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3" t="n">
-        <v>0</v>
+      <c r="M68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R68" s="3" t="n">
         <v>0</v>
@@ -6336,14 +6539,14 @@
       <c r="V68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="3" t="n">
-        <v>0</v>
+      <c r="W68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z68" s="3" t="n">
         <v>0</v>
@@ -6353,6 +6556,9 @@
       </c>
       <c r="AB68" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="69">
@@ -6392,17 +6598,17 @@
       <c r="L69" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" s="3" t="n">
-        <v>0</v>
+      <c r="M69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
@@ -6439,6 +6645,9 @@
       </c>
       <c r="AB69" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -6508,8 +6717,8 @@
       <c r="V70" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W70" s="3" t="n">
-        <v>0</v>
+      <c r="W70" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X70" s="3" t="n">
         <v>0</v>
@@ -6525,6 +6734,9 @@
       </c>
       <c r="AB70" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="71">
@@ -6612,6 +6824,9 @@
       <c r="AB71" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6698,6 +6913,9 @@
       <c r="AB72" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC72" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6778,11 +6996,14 @@
       <c r="Z73" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA73" s="3" t="n">
-        <v>0</v>
+      <c r="AA73" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB73" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="74">
@@ -6858,8 +7079,8 @@
       <c r="X74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y74" s="2" t="n">
-        <v>1</v>
+      <c r="Y74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z74" s="3" t="n">
         <v>0</v>
@@ -6869,6 +7090,9 @@
       </c>
       <c r="AB74" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="75">
@@ -6956,6 +7180,9 @@
       <c r="AB75" t="n">
         <v>16.81654545454545</v>
       </c>
+      <c r="AC75" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6976,17 +7203,17 @@
       <c r="F76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="n">
-        <v>0</v>
+      <c r="G76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>1</v>
@@ -7030,17 +7257,20 @@
       <c r="X76" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="3" t="n">
-        <v>0</v>
+      <c r="Y76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB76" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="77">
@@ -7077,8 +7307,8 @@
       <c r="K77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L77" s="3" t="n">
-        <v>0</v>
+      <c r="L77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M77" s="2" t="n">
         <v>1</v>
@@ -7092,8 +7322,8 @@
       <c r="P77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q77" s="3" t="n">
-        <v>0</v>
+      <c r="Q77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R77" s="3" t="n">
         <v>0</v>
@@ -7107,8 +7337,8 @@
       <c r="U77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V77" s="3" t="n">
-        <v>0</v>
+      <c r="V77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W77" s="2" t="n">
         <v>1</v>
@@ -7116,8 +7346,8 @@
       <c r="X77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" s="2" t="n">
-        <v>1</v>
+      <c r="Y77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Z77" s="3" t="n">
         <v>0</v>
@@ -7127,6 +7357,9 @@
       </c>
       <c r="AB77" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="78">
@@ -7166,20 +7399,20 @@
       <c r="L78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3" t="n">
-        <v>0</v>
+      <c r="M78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R78" s="3" t="n">
         <v>0</v>
@@ -7213,6 +7446,9 @@
       </c>
       <c r="AB78" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="79">
@@ -7252,17 +7488,17 @@
       <c r="L79" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" s="3" t="n">
-        <v>0</v>
+      <c r="M79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q79" s="3" t="n">
         <v>0</v>
@@ -7299,6 +7535,9 @@
       </c>
       <c r="AB79" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="80">
@@ -7368,8 +7607,8 @@
       <c r="V80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W80" s="3" t="n">
-        <v>0</v>
+      <c r="W80" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X80" s="3" t="n">
         <v>0</v>
@@ -7385,6 +7624,9 @@
       </c>
       <c r="AB80" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="81">
@@ -7472,6 +7714,9 @@
       <c r="AB81" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC81" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7558,6 +7803,9 @@
       <c r="AB82" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC82" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7569,8 +7817,8 @@
       <c r="C83" t="n">
         <v>8</v>
       </c>
-      <c r="D83" s="3" t="n">
-        <v>0</v>
+      <c r="D83" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1</v>
@@ -7643,6 +7891,9 @@
       </c>
       <c r="AB83" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="84">
@@ -7667,8 +7918,8 @@
       <c r="G84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H84" s="2" t="n">
-        <v>1</v>
+      <c r="H84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I84" s="2" t="n">
         <v>1</v>
@@ -7697,20 +7948,20 @@
       <c r="Q84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V84" s="3" t="n">
-        <v>0</v>
+      <c r="R84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W84" s="2" t="n">
         <v>1</v>
@@ -7721,14 +7972,17 @@
       <c r="Y84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="2" t="n">
-        <v>1</v>
+      <c r="Z84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
         <v>16.9</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="85">
@@ -7816,6 +8070,9 @@
       <c r="AB85" t="n">
         <v>16.81654545454545</v>
       </c>
+      <c r="AC85" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7833,23 +8090,23 @@
       <c r="E86" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3" t="n">
-        <v>0</v>
+      <c r="F86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L86" s="2" t="n">
         <v>1</v>
@@ -7901,6 +8158,9 @@
       </c>
       <c r="AB86" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="87">
@@ -7937,8 +8197,8 @@
       <c r="K87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L87" s="3" t="n">
-        <v>0</v>
+      <c r="L87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M87" s="2" t="n">
         <v>1</v>
@@ -7952,11 +8212,11 @@
       <c r="P87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="3" t="n">
-        <v>0</v>
+      <c r="Q87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="S87" s="3" t="n">
         <v>0</v>
@@ -7967,14 +8227,14 @@
       <c r="U87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" s="3" t="n">
-        <v>0</v>
+      <c r="V87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y87" s="3" t="n">
         <v>0</v>
@@ -7987,6 +8247,9 @@
       </c>
       <c r="AB87" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="88">
@@ -8023,23 +8286,23 @@
       <c r="K88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="3" t="n">
-        <v>0</v>
+      <c r="L88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R88" s="3" t="n">
         <v>0</v>
@@ -8056,14 +8319,14 @@
       <c r="V88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="3" t="n">
-        <v>0</v>
+      <c r="W88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z88" s="3" t="n">
         <v>0</v>
@@ -8073,6 +8336,9 @@
       </c>
       <c r="AB88" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="89">
@@ -8112,17 +8378,17 @@
       <c r="L89" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="n">
-        <v>0</v>
+      <c r="M89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q89" s="3" t="n">
         <v>0</v>
@@ -8159,6 +8425,9 @@
       </c>
       <c r="AB89" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -8201,14 +8470,14 @@
       <c r="M90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3" t="n">
-        <v>0</v>
+      <c r="N90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q90" s="3" t="n">
         <v>0</v>
@@ -8228,8 +8497,8 @@
       <c r="V90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W90" s="3" t="n">
-        <v>0</v>
+      <c r="W90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X90" s="3" t="n">
         <v>0</v>
@@ -8245,6 +8514,9 @@
       </c>
       <c r="AB90" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="91">
@@ -8332,6 +8604,9 @@
       <c r="AB91" t="n">
         <v>27.90237777777777</v>
       </c>
+      <c r="AC91" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8418,6 +8693,9 @@
       <c r="AB92" t="n">
         <v>16.48039344262295</v>
       </c>
+      <c r="AC92" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8429,11 +8707,11 @@
       <c r="C93" t="n">
         <v>8</v>
       </c>
-      <c r="D93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>0</v>
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>1</v>
@@ -8498,11 +8776,14 @@
       <c r="Z93" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA93" s="3" t="n">
-        <v>0</v>
+      <c r="AA93" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AB93" t="n">
         <v>17.44754098360655</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="94">
@@ -8590,6 +8871,9 @@
       <c r="AB94" t="n">
         <v>16.9</v>
       </c>
+      <c r="AC94" t="n">
+        <v>1100</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8610,8 +8894,8 @@
       <c r="F95" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G95" s="3" t="n">
-        <v>0</v>
+      <c r="G95" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>1</v>
@@ -8667,14 +8951,17 @@
       <c r="Y95" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z95" s="3" t="n">
-        <v>0</v>
+      <c r="Z95" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AA95" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AB95" t="n">
         <v>16.81654545454545</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1120</v>
       </c>
     </row>
     <row r="96">
@@ -8699,17 +8986,17 @@
       <c r="G96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>0</v>
+      <c r="H96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>1</v>
@@ -8761,6 +9048,9 @@
       </c>
       <c r="AB96" t="n">
         <v>20.44425547445255</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="97">
@@ -8797,8 +9087,8 @@
       <c r="K97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L97" s="3" t="n">
-        <v>0</v>
+      <c r="L97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M97" s="2" t="n">
         <v>1</v>
@@ -8812,8 +9102,8 @@
       <c r="P97" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q97" s="3" t="n">
-        <v>0</v>
+      <c r="Q97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R97" s="3" t="n">
         <v>0</v>
@@ -8827,14 +9117,14 @@
       <c r="U97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" s="3" t="n">
-        <v>0</v>
+      <c r="V97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y97" s="3" t="n">
         <v>0</v>
@@ -8847,6 +9137,9 @@
       </c>
       <c r="AB97" t="n">
         <v>22.97203333333333</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="98">
@@ -8898,8 +9191,8 @@
       <c r="P98" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q98" s="3" t="n">
-        <v>0</v>
+      <c r="Q98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R98" s="3" t="n">
         <v>0</v>
@@ -8916,14 +9209,14 @@
       <c r="V98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="3" t="n">
-        <v>0</v>
+      <c r="W98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Z98" s="3" t="n">
         <v>0</v>
@@ -8933,6 +9226,9 @@
       </c>
       <c r="AB98" t="n">
         <v>28.609</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="99">
@@ -8972,17 +9268,17 @@
       <c r="L99" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" s="3" t="n">
-        <v>0</v>
+      <c r="M99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q99" s="3" t="n">
         <v>0</v>
@@ -9005,8 +9301,8 @@
       <c r="W99" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X99" s="3" t="n">
-        <v>0</v>
+      <c r="X99" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y99" s="3" t="n">
         <v>0</v>
@@ -9019,6 +9315,9 @@
       </c>
       <c r="AB99" t="n">
         <v>26.18837777777778</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100">
@@ -9088,8 +9387,8 @@
       <c r="V100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="n">
-        <v>0</v>
+      <c r="W100" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X100" s="3" t="n">
         <v>0</v>
@@ -9105,6 +9404,9 @@
       </c>
       <c r="AB100" t="n">
         <v>27.4144</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -9191,6 +9493,9 @@
       </c>
       <c r="AB101" t="n">
         <v>27.90237777777777</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -9421,10 +9726,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -9512,14 +9817,14 @@
       <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>1</v>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
+      <c r="I4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>0</v>
@@ -9672,11 +9977,11 @@
       <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>0</v>
@@ -9749,14 +10054,14 @@
       <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>0</v>
@@ -9785,8 +10090,8 @@
       <c r="T7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U7" s="3" t="n">
-        <v>0</v>
+      <c r="U7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V7" s="3" t="n">
         <v>0</v>
@@ -9829,8 +10134,8 @@
       <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="n">
-        <v>0</v>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>0</v>
@@ -9909,8 +10214,8 @@
       <c r="J9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
@@ -9986,8 +10291,8 @@
       <c r="J10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -10016,8 +10321,8 @@
       <c r="T10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="n">
-        <v>0</v>
+      <c r="U10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V10" s="3" t="n">
         <v>0</v>
@@ -10276,14 +10581,14 @@
       <c r="D14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
+      <c r="G14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>0</v>
@@ -10324,8 +10629,8 @@
       <c r="T14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="n">
-        <v>0</v>
+      <c r="U14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V14" s="3" t="n">
         <v>0</v>
@@ -10353,11 +10658,11 @@
       <c r="D15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>0</v>
@@ -10422,7 +10727,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -10436,8 +10741,8 @@
       <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
+      <c r="G16" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>0</v>
@@ -10519,14 +10824,14 @@
       <c r="H17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
+      <c r="I17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>0</v>
@@ -10555,8 +10860,8 @@
       <c r="T17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U17" s="3" t="n">
-        <v>0</v>
+      <c r="U17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V17" s="3" t="n">
         <v>0</v>
@@ -10599,8 +10904,8 @@
       <c r="I18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
+      <c r="J18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>0</v>
@@ -10679,8 +10984,8 @@
       <c r="J19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
@@ -10786,8 +11091,8 @@
       <c r="T20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="n">
-        <v>0</v>
+      <c r="U20" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V20" s="3" t="n">
         <v>0</v>
@@ -11123,11 +11428,11 @@
       <c r="D25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>1</v>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>0</v>
@@ -11197,8 +11502,8 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="3" t="n">
-        <v>0</v>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
@@ -11212,8 +11517,8 @@
       <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>1</v>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="n">
         <v>0</v>
@@ -11292,11 +11597,11 @@
       <c r="I27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>1</v>
+      <c r="J27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -11322,11 +11627,11 @@
       <c r="S27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2" t="n">
-        <v>1</v>
+      <c r="T27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="3" t="n">
         <v>0</v>
@@ -11372,8 +11677,8 @@
       <c r="J28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="3" t="n">
-        <v>0</v>
+      <c r="K28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -11449,8 +11754,8 @@
       <c r="J29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="n">
-        <v>0</v>
+      <c r="K29" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
         <v>0</v>
@@ -11556,8 +11861,8 @@
       <c r="T30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U30" s="3" t="n">
-        <v>0</v>
+      <c r="U30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V30" s="3" t="n">
         <v>0</v>
@@ -11864,8 +12169,8 @@
       <c r="T34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U34" s="3" t="n">
-        <v>0</v>
+      <c r="U34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V34" s="3" t="n">
         <v>0</v>
@@ -11967,8 +12272,8 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>0</v>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0</v>
@@ -11982,8 +12287,8 @@
       <c r="H36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="n">
-        <v>1</v>
+      <c r="I36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="n">
         <v>0</v>
@@ -12059,14 +12364,14 @@
       <c r="H37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>0</v>
+      <c r="I37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="2" t="n">
-        <v>1</v>
+      <c r="K37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>0</v>
@@ -12142,8 +12447,8 @@
       <c r="J38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="3" t="n">
-        <v>0</v>
+      <c r="K38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
         <v>0</v>
@@ -12172,8 +12477,8 @@
       <c r="T38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U38" s="3" t="n">
-        <v>0</v>
+      <c r="U38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V38" s="3" t="n">
         <v>0</v>
@@ -12219,8 +12524,8 @@
       <c r="J39" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>0</v>
+      <c r="K39" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
         <v>0</v>
@@ -12296,8 +12601,8 @@
       <c r="J40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="3" t="n">
-        <v>0</v>
+      <c r="K40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>0</v>
@@ -12326,8 +12631,8 @@
       <c r="T40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U40" s="3" t="n">
-        <v>0</v>
+      <c r="U40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V40" s="3" t="n">
         <v>0</v>
@@ -12501,10 +12806,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>0</v>
@@ -12589,11 +12894,11 @@
       <c r="E44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>1</v>
+      <c r="F44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>0</v>
@@ -12634,8 +12939,8 @@
       <c r="T44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U44" s="2" t="n">
-        <v>1</v>
+      <c r="U44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="n">
         <v>0</v>
@@ -12737,8 +13042,8 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>0</v>
+      <c r="D46" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>0</v>
@@ -12752,8 +13057,8 @@
       <c r="H46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="2" t="n">
-        <v>1</v>
+      <c r="I46" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="n">
         <v>0</v>
@@ -12832,11 +13137,11 @@
       <c r="I47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>1</v>
+      <c r="J47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -12912,8 +13217,8 @@
       <c r="J48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="n">
-        <v>0</v>
+      <c r="K48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>0</v>
@@ -12942,8 +13247,8 @@
       <c r="T48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="n">
-        <v>0</v>
+      <c r="U48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V48" s="3" t="n">
         <v>0</v>
@@ -12989,8 +13294,8 @@
       <c r="J49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="n">
-        <v>0</v>
+      <c r="K49" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>0</v>
@@ -13066,8 +13371,8 @@
       <c r="J50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K50" s="3" t="n">
-        <v>0</v>
+      <c r="K50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>0</v>
@@ -13096,8 +13401,8 @@
       <c r="T50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U50" s="3" t="n">
-        <v>0</v>
+      <c r="U50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V50" s="3" t="n">
         <v>0</v>
@@ -13271,13 +13576,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>1</v>
+      <c r="D53" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>0</v>
@@ -13404,8 +13709,8 @@
       <c r="T54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U54" s="2" t="n">
-        <v>1</v>
+      <c r="U54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="n">
         <v>0</v>
@@ -13433,11 +13738,11 @@
       <c r="D55" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <v>0</v>
+      <c r="E55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>0</v>
@@ -13507,8 +13812,8 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="3" t="n">
-        <v>0</v>
+      <c r="D56" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>0</v>
@@ -13525,8 +13830,8 @@
       <c r="I56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J56" s="2" t="n">
-        <v>1</v>
+      <c r="J56" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>0</v>
@@ -13599,14 +13904,14 @@
       <c r="H57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="n">
-        <v>0</v>
+      <c r="I57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="2" t="n">
-        <v>1</v>
+      <c r="K57" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -13632,8 +13937,8 @@
       <c r="S57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="n">
-        <v>0</v>
+      <c r="T57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U57" s="3" t="n">
         <v>0</v>
@@ -13712,8 +14017,8 @@
       <c r="T58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="n">
-        <v>0</v>
+      <c r="U58" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V58" s="3" t="n">
         <v>0</v>
@@ -13759,8 +14064,8 @@
       <c r="J59" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="n">
-        <v>0</v>
+      <c r="K59" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
         <v>0</v>
@@ -13866,8 +14171,8 @@
       <c r="T60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="n">
-        <v>0</v>
+      <c r="U60" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V60" s="3" t="n">
         <v>0</v>
@@ -14174,8 +14479,8 @@
       <c r="T64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U64" s="2" t="n">
-        <v>1</v>
+      <c r="U64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="3" t="n">
         <v>0</v>
@@ -14203,11 +14508,11 @@
       <c r="D65" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>1</v>
+      <c r="E65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G65" s="3" t="n">
         <v>0</v>
@@ -14277,8 +14582,8 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="3" t="n">
-        <v>0</v>
+      <c r="D66" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>0</v>
@@ -14295,8 +14600,8 @@
       <c r="I66" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J66" s="2" t="n">
-        <v>1</v>
+      <c r="J66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="n">
         <v>0</v>
@@ -14372,11 +14677,11 @@
       <c r="I67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>1</v>
+      <c r="J67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L67" s="3" t="n">
         <v>0</v>
@@ -14452,8 +14757,8 @@
       <c r="J68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K68" s="3" t="n">
-        <v>0</v>
+      <c r="K68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
         <v>0</v>
@@ -14482,8 +14787,8 @@
       <c r="T68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U68" s="3" t="n">
-        <v>0</v>
+      <c r="U68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V68" s="3" t="n">
         <v>0</v>
@@ -14529,8 +14834,8 @@
       <c r="J69" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K69" s="3" t="n">
-        <v>0</v>
+      <c r="K69" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L69" s="3" t="n">
         <v>0</v>
@@ -14636,8 +14941,8 @@
       <c r="T70" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U70" s="3" t="n">
-        <v>0</v>
+      <c r="U70" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V70" s="3" t="n">
         <v>0</v>
@@ -15050,8 +15355,8 @@
       <c r="D76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E76" s="3" t="n">
-        <v>0</v>
+      <c r="E76" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F76" s="3" t="n">
         <v>0</v>
@@ -15062,8 +15367,8 @@
       <c r="H76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I76" s="2" t="n">
-        <v>1</v>
+      <c r="I76" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="n">
         <v>0</v>
@@ -15142,11 +15447,11 @@
       <c r="I77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>1</v>
+      <c r="J77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L77" s="3" t="n">
         <v>0</v>
@@ -15172,11 +15477,11 @@
       <c r="S77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" s="2" t="n">
-        <v>1</v>
+      <c r="T77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V77" s="3" t="n">
         <v>0</v>
@@ -15222,8 +15527,8 @@
       <c r="J78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K78" s="3" t="n">
-        <v>0</v>
+      <c r="K78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
         <v>0</v>
@@ -15299,8 +15604,8 @@
       <c r="J79" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K79" s="3" t="n">
-        <v>0</v>
+      <c r="K79" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L79" s="3" t="n">
         <v>0</v>
@@ -15406,8 +15711,8 @@
       <c r="T80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U80" s="3" t="n">
-        <v>0</v>
+      <c r="U80" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V80" s="3" t="n">
         <v>0</v>
@@ -15581,10 +15886,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>0</v>
@@ -15669,11 +15974,11 @@
       <c r="E84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
+      <c r="F84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="H84" s="3" t="n">
         <v>0</v>
@@ -15714,8 +16019,8 @@
       <c r="T84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U84" s="2" t="n">
-        <v>1</v>
+      <c r="U84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V84" s="3" t="n">
         <v>0</v>
@@ -15817,8 +16122,8 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="3" t="n">
-        <v>0</v>
+      <c r="D86" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>0</v>
@@ -15835,8 +16140,8 @@
       <c r="I86" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J86" s="2" t="n">
-        <v>1</v>
+      <c r="J86" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K86" s="3" t="n">
         <v>0</v>
@@ -15912,11 +16217,11 @@
       <c r="I87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2" t="n">
-        <v>1</v>
+      <c r="J87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L87" s="3" t="n">
         <v>0</v>
@@ -15942,8 +16247,8 @@
       <c r="S87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T87" s="3" t="n">
-        <v>0</v>
+      <c r="T87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U87" s="3" t="n">
         <v>0</v>
@@ -15989,8 +16294,8 @@
       <c r="I88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J88" s="3" t="n">
-        <v>0</v>
+      <c r="J88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K88" s="3" t="n">
         <v>0</v>
@@ -16022,8 +16327,8 @@
       <c r="T88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U88" s="3" t="n">
-        <v>0</v>
+      <c r="U88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V88" s="3" t="n">
         <v>0</v>
@@ -16069,8 +16374,8 @@
       <c r="J89" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="n">
-        <v>0</v>
+      <c r="K89" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L89" s="3" t="n">
         <v>0</v>
@@ -16149,8 +16454,8 @@
       <c r="K90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L90" s="3" t="n">
-        <v>0</v>
+      <c r="L90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M90" s="3" t="n">
         <v>0</v>
@@ -16176,8 +16481,8 @@
       <c r="T90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U90" s="3" t="n">
-        <v>0</v>
+      <c r="U90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V90" s="3" t="n">
         <v>0</v>
@@ -16351,13 +16656,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
+      <c r="D93" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>0</v>
@@ -16513,11 +16818,11 @@
       <c r="D95" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>1</v>
+      <c r="E95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G95" s="3" t="n">
         <v>0</v>
@@ -16593,8 +16898,8 @@
       <c r="E96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F96" s="3" t="n">
-        <v>0</v>
+      <c r="F96" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>0</v>
@@ -16605,8 +16910,8 @@
       <c r="I96" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J96" s="2" t="n">
-        <v>1</v>
+      <c r="J96" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K96" s="3" t="n">
         <v>0</v>
@@ -16682,11 +16987,11 @@
       <c r="I97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>1</v>
+      <c r="J97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="L97" s="3" t="n">
         <v>0</v>
@@ -16712,8 +17017,8 @@
       <c r="S97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T97" s="3" t="n">
-        <v>0</v>
+      <c r="T97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U97" s="3" t="n">
         <v>0</v>
@@ -16792,8 +17097,8 @@
       <c r="T98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U98" s="3" t="n">
-        <v>0</v>
+      <c r="U98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V98" s="3" t="n">
         <v>0</v>
@@ -16839,8 +17144,8 @@
       <c r="J99" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K99" s="3" t="n">
-        <v>0</v>
+      <c r="K99" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="L99" s="3" t="n">
         <v>0</v>
@@ -16946,8 +17251,8 @@
       <c r="T100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="n">
-        <v>0</v>
+      <c r="U100" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V100" s="3" t="n">
         <v>0</v>
@@ -17560,14 +17865,14 @@
       <c r="V6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <v>1</v>
+      <c r="W6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" s="3" t="n">
-        <v>0</v>
+      <c r="Y6" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -17613,14 +17918,14 @@
       <c r="N7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>1</v>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="n">
-        <v>0</v>
+      <c r="Q7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R7" s="3" t="n">
         <v>0</v>
@@ -17640,8 +17945,8 @@
       <c r="W7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X7" s="3" t="n">
-        <v>0</v>
+      <c r="X7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y7" s="3" t="n">
         <v>0</v>
@@ -17693,8 +17998,8 @@
       <c r="O8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
+      <c r="P8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>0</v>
@@ -17767,8 +18072,8 @@
       <c r="N9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
+      <c r="O9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>0</v>
@@ -17788,11 +18093,11 @@
       <c r="U9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X9" s="3" t="n">
         <v>0</v>
@@ -17844,8 +18149,8 @@
       <c r="N10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="n">
-        <v>0</v>
+      <c r="O10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>0</v>
@@ -17865,8 +18170,8 @@
       <c r="U10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="n">
-        <v>0</v>
+      <c r="V10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W10" s="3" t="n">
         <v>0</v>
@@ -18155,8 +18460,8 @@
       <c r="O14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="n">
-        <v>0</v>
+      <c r="P14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
@@ -18179,8 +18484,8 @@
       <c r="W14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="2" t="n">
-        <v>1</v>
+      <c r="X14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="n">
         <v>0</v>
@@ -18383,11 +18688,11 @@
       <c r="N17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
+      <c r="O17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0</v>
@@ -18410,8 +18715,8 @@
       <c r="W17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X17" s="3" t="n">
-        <v>0</v>
+      <c r="X17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y17" s="3" t="n">
         <v>0</v>
@@ -18460,8 +18765,8 @@
       <c r="N18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="n">
-        <v>0</v>
+      <c r="O18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>0</v>
@@ -18537,8 +18842,8 @@
       <c r="N19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O19" s="3" t="n">
-        <v>0</v>
+      <c r="O19" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>0</v>
@@ -18635,8 +18940,8 @@
       <c r="U20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="n">
-        <v>0</v>
+      <c r="V20" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W20" s="3" t="n">
         <v>0</v>
@@ -18946,11 +19251,11 @@
       <c r="V24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" s="3" t="n">
-        <v>0</v>
+      <c r="W24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y24" s="3" t="n">
         <v>0</v>
@@ -19153,14 +19458,14 @@
       <c r="N27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O27" s="2" t="n">
-        <v>1</v>
+      <c r="O27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="n">
-        <v>0</v>
+      <c r="Q27" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R27" s="3" t="n">
         <v>0</v>
@@ -19177,11 +19482,11 @@
       <c r="V27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2" t="n">
-        <v>1</v>
+      <c r="W27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y27" s="3" t="n">
         <v>0</v>
@@ -19230,8 +19535,8 @@
       <c r="N28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O28" s="3" t="n">
-        <v>0</v>
+      <c r="O28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>0</v>
@@ -19307,8 +19612,8 @@
       <c r="N29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="n">
-        <v>0</v>
+      <c r="O29" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>0</v>
@@ -19405,8 +19710,8 @@
       <c r="U30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V30" s="3" t="n">
-        <v>0</v>
+      <c r="V30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W30" s="3" t="n">
         <v>0</v>
@@ -19695,8 +20000,8 @@
       <c r="O34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P34" s="3" t="n">
-        <v>0</v>
+      <c r="P34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
@@ -19719,8 +20024,8 @@
       <c r="W34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X34" s="2" t="n">
-        <v>1</v>
+      <c r="X34" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y34" s="3" t="n">
         <v>0</v>
@@ -19870,14 +20175,14 @@
       <c r="V36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="2" t="n">
-        <v>1</v>
+      <c r="W36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y36" s="3" t="n">
-        <v>0</v>
+      <c r="Y36" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -19923,14 +20228,14 @@
       <c r="N37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O37" s="2" t="n">
-        <v>1</v>
+      <c r="O37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" s="3" t="n">
-        <v>0</v>
+      <c r="Q37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R37" s="3" t="n">
         <v>0</v>
@@ -20003,8 +20308,8 @@
       <c r="O38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P38" s="3" t="n">
-        <v>0</v>
+      <c r="P38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>0</v>
@@ -20027,8 +20332,8 @@
       <c r="W38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X38" s="3" t="n">
-        <v>0</v>
+      <c r="X38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y38" s="3" t="n">
         <v>0</v>
@@ -20077,8 +20382,8 @@
       <c r="N39" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O39" s="3" t="n">
-        <v>0</v>
+      <c r="O39" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>0</v>
@@ -20154,8 +20459,8 @@
       <c r="N40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O40" s="3" t="n">
-        <v>0</v>
+      <c r="O40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>0</v>
@@ -20175,8 +20480,8 @@
       <c r="U40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V40" s="3" t="n">
-        <v>0</v>
+      <c r="V40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W40" s="3" t="n">
         <v>0</v>
@@ -20465,8 +20770,8 @@
       <c r="O44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P44" s="2" t="n">
-        <v>1</v>
+      <c r="P44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
@@ -20486,8 +20791,8 @@
       <c r="V44" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="n">
-        <v>0</v>
+      <c r="W44" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X44" s="3" t="n">
         <v>0</v>
@@ -20640,14 +20945,14 @@
       <c r="V46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W46" s="2" t="n">
-        <v>1</v>
+      <c r="W46" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y46" s="3" t="n">
-        <v>0</v>
+      <c r="Y46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -20693,14 +20998,14 @@
       <c r="N47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O47" s="2" t="n">
-        <v>1</v>
+      <c r="O47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="n">
-        <v>0</v>
+      <c r="Q47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R47" s="3" t="n">
         <v>0</v>
@@ -20773,8 +21078,8 @@
       <c r="O48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="n">
-        <v>0</v>
+      <c r="P48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0</v>
@@ -20797,8 +21102,8 @@
       <c r="W48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="n">
-        <v>0</v>
+      <c r="X48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y48" s="3" t="n">
         <v>0</v>
@@ -20847,8 +21152,8 @@
       <c r="N49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="n">
-        <v>0</v>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>0</v>
@@ -20924,8 +21229,8 @@
       <c r="N50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O50" s="3" t="n">
-        <v>0</v>
+      <c r="O50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>0</v>
@@ -20945,8 +21250,8 @@
       <c r="U50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V50" s="3" t="n">
-        <v>0</v>
+      <c r="V50" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W50" s="3" t="n">
         <v>0</v>
@@ -21235,8 +21540,8 @@
       <c r="O54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P54" s="2" t="n">
-        <v>1</v>
+      <c r="P54" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="n">
         <v>0</v>
@@ -21256,8 +21561,8 @@
       <c r="V54" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="n">
-        <v>0</v>
+      <c r="W54" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X54" s="3" t="n">
         <v>0</v>
@@ -21410,14 +21715,14 @@
       <c r="V56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W56" s="2" t="n">
-        <v>1</v>
+      <c r="W56" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y56" s="3" t="n">
-        <v>0</v>
+      <c r="Y56" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -21463,11 +21768,11 @@
       <c r="N57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3" t="n">
-        <v>0</v>
+      <c r="O57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>0</v>
@@ -21487,8 +21792,8 @@
       <c r="V57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="n">
-        <v>0</v>
+      <c r="W57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X57" s="3" t="n">
         <v>0</v>
@@ -21567,8 +21872,8 @@
       <c r="W58" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="n">
-        <v>0</v>
+      <c r="X58" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y58" s="3" t="n">
         <v>0</v>
@@ -21617,8 +21922,8 @@
       <c r="N59" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="n">
-        <v>0</v>
+      <c r="O59" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>0</v>
@@ -21715,8 +22020,8 @@
       <c r="U60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="n">
-        <v>0</v>
+      <c r="V60" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W60" s="3" t="n">
         <v>0</v>
@@ -22005,8 +22310,8 @@
       <c r="O64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P64" s="2" t="n">
-        <v>1</v>
+      <c r="P64" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q64" s="3" t="n">
         <v>0</v>
@@ -22026,8 +22331,8 @@
       <c r="V64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W64" s="3" t="n">
-        <v>0</v>
+      <c r="W64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X64" s="3" t="n">
         <v>0</v>
@@ -22233,14 +22538,14 @@
       <c r="N67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O67" s="2" t="n">
-        <v>1</v>
+      <c r="O67" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" s="3" t="n">
-        <v>0</v>
+      <c r="Q67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R67" s="3" t="n">
         <v>0</v>
@@ -22313,8 +22618,8 @@
       <c r="O68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P68" s="3" t="n">
-        <v>0</v>
+      <c r="P68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q68" s="3" t="n">
         <v>0</v>
@@ -22337,8 +22642,8 @@
       <c r="W68" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X68" s="3" t="n">
-        <v>0</v>
+      <c r="X68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y68" s="3" t="n">
         <v>0</v>
@@ -22387,8 +22692,8 @@
       <c r="N69" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O69" s="3" t="n">
-        <v>0</v>
+      <c r="O69" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>0</v>
@@ -22485,8 +22790,8 @@
       <c r="U70" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V70" s="3" t="n">
-        <v>0</v>
+      <c r="V70" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W70" s="3" t="n">
         <v>0</v>
@@ -22725,8 +23030,8 @@
       <c r="X73" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y73" s="2" t="n">
-        <v>1</v>
+      <c r="Y73" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -22796,11 +23101,11 @@
       <c r="V74" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" s="2" t="n">
-        <v>1</v>
+      <c r="W74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y74" s="3" t="n">
         <v>0</v>
@@ -22950,8 +23255,8 @@
       <c r="V76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W76" s="2" t="n">
-        <v>1</v>
+      <c r="W76" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X76" s="3" t="n">
         <v>0</v>
@@ -23003,11 +23308,11 @@
       <c r="N77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" s="3" t="n">
-        <v>0</v>
+      <c r="O77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q77" s="3" t="n">
         <v>0</v>
@@ -23027,11 +23332,11 @@
       <c r="V77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" s="2" t="n">
-        <v>1</v>
+      <c r="W77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y77" s="3" t="n">
         <v>0</v>
@@ -23083,8 +23388,8 @@
       <c r="O78" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P78" s="3" t="n">
-        <v>0</v>
+      <c r="P78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q78" s="3" t="n">
         <v>0</v>
@@ -23157,8 +23462,8 @@
       <c r="N79" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O79" s="3" t="n">
-        <v>0</v>
+      <c r="O79" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>0</v>
@@ -23255,8 +23560,8 @@
       <c r="U80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V80" s="3" t="n">
-        <v>0</v>
+      <c r="V80" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W80" s="3" t="n">
         <v>0</v>
@@ -23545,8 +23850,8 @@
       <c r="O84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P84" s="2" t="n">
-        <v>1</v>
+      <c r="P84" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q84" s="3" t="n">
         <v>0</v>
@@ -23569,8 +23874,8 @@
       <c r="W84" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X84" s="3" t="n">
-        <v>0</v>
+      <c r="X84" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y84" s="3" t="n">
         <v>0</v>
@@ -23773,14 +24078,14 @@
       <c r="N87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O87" s="2" t="n">
-        <v>1</v>
+      <c r="O87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q87" s="3" t="n">
-        <v>0</v>
+      <c r="Q87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R87" s="3" t="n">
         <v>0</v>
@@ -23797,8 +24102,8 @@
       <c r="V87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W87" s="3" t="n">
-        <v>0</v>
+      <c r="W87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X87" s="3" t="n">
         <v>0</v>
@@ -23853,8 +24158,8 @@
       <c r="O88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P88" s="3" t="n">
-        <v>0</v>
+      <c r="P88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q88" s="3" t="n">
         <v>0</v>
@@ -23877,8 +24182,8 @@
       <c r="W88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X88" s="3" t="n">
-        <v>0</v>
+      <c r="X88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y88" s="3" t="n">
         <v>0</v>
@@ -23927,8 +24232,8 @@
       <c r="N89" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="n">
-        <v>0</v>
+      <c r="O89" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>0</v>
@@ -24004,8 +24309,8 @@
       <c r="N90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O90" s="3" t="n">
-        <v>0</v>
+      <c r="O90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>0</v>
@@ -24025,8 +24330,8 @@
       <c r="U90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V90" s="3" t="n">
-        <v>0</v>
+      <c r="V90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W90" s="3" t="n">
         <v>0</v>
@@ -24265,8 +24570,8 @@
       <c r="X93" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Y93" s="2" t="n">
-        <v>1</v>
+      <c r="Y93" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -24416,11 +24721,11 @@
       <c r="W95" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X95" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y95" s="3" t="n">
-        <v>0</v>
+      <c r="X95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -24543,11 +24848,11 @@
       <c r="N97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O97" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P97" s="3" t="n">
-        <v>0</v>
+      <c r="O97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q97" s="3" t="n">
         <v>0</v>
@@ -24567,8 +24872,8 @@
       <c r="V97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="W97" s="3" t="n">
-        <v>0</v>
+      <c r="W97" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X97" s="3" t="n">
         <v>0</v>
@@ -24620,11 +24925,11 @@
       <c r="N98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P98" s="3" t="n">
-        <v>0</v>
+      <c r="O98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q98" s="3" t="n">
         <v>0</v>
@@ -24647,8 +24952,8 @@
       <c r="W98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X98" s="3" t="n">
-        <v>0</v>
+      <c r="X98" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y98" s="3" t="n">
         <v>0</v>
@@ -24697,8 +25002,8 @@
       <c r="N99" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O99" s="3" t="n">
-        <v>0</v>
+      <c r="O99" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P99" s="3" t="n">
         <v>0</v>
@@ -24718,11 +25023,11 @@
       <c r="U99" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W99" s="3" t="n">
-        <v>0</v>
+      <c r="V99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X99" s="3" t="n">
         <v>0</v>
@@ -24795,8 +25100,8 @@
       <c r="U100" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="n">
-        <v>0</v>
+      <c r="V100" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W100" s="3" t="n">
         <v>0</v>
@@ -25044,7 +25349,7 @@
         <v>455</v>
       </c>
       <c r="C2" t="n">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D2" t="n">
         <v>455</v>
@@ -25121,16 +25426,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C3" t="n">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="D3" t="n">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="E3" t="n">
-        <v>455</v>
+        <v>426.5</v>
       </c>
       <c r="F3" t="n">
         <v>455</v>
@@ -25169,13 +25474,13 @@
         <v>395</v>
       </c>
       <c r="R3" t="n">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="S3" t="n">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="T3" t="n">
-        <v>455</v>
+        <v>412.1</v>
       </c>
       <c r="U3" t="n">
         <v>455</v>
@@ -25184,13 +25489,13 @@
         <v>455</v>
       </c>
       <c r="W3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="X3" t="n">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="Y3" t="n">
-        <v>455</v>
+        <v>336</v>
       </c>
       <c r="Z3" t="n">
         <v>7500</v>
@@ -25216,10 +25521,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>130</v>
@@ -25382,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K6" t="n">
         <v>162</v>
@@ -25400,34 +25705,34 @@
         <v>162</v>
       </c>
       <c r="O6" t="n">
-        <v>162</v>
+        <v>111.9</v>
       </c>
       <c r="P6" t="n">
-        <v>102</v>
+        <v>51.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R6" t="n">
         <v>25</v>
       </c>
       <c r="S6" t="n">
-        <v>42</v>
+        <v>36.9</v>
       </c>
       <c r="T6" t="n">
-        <v>102</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>162</v>
+        <v>156.9</v>
       </c>
       <c r="V6" t="n">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -25462,49 +25767,49 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
         <v>80</v>
       </c>
       <c r="L7" t="n">
-        <v>80</v>
+        <v>77.3</v>
       </c>
       <c r="M7" t="n">
         <v>80</v>
       </c>
       <c r="N7" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>20</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>80</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -25545,22 +25850,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -25628,16 +25933,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -25658,10 +25963,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -25708,16 +26013,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -25738,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -25921,16 +26226,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="C13" t="n">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D13" t="n">
         <v>455</v>
       </c>
       <c r="E13" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="F13" t="n">
         <v>455</v>
@@ -25987,10 +26292,10 @@
         <v>455</v>
       </c>
       <c r="X13" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="Y13" t="n">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="Z13" t="n">
         <v>14127</v>
@@ -26010,10 +26315,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>130</v>
@@ -26043,19 +26348,19 @@
         <v>130</v>
       </c>
       <c r="P14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>130</v>
@@ -26067,10 +26372,10 @@
         <v>130</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="n">
         <v>14127</v>
@@ -26090,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>130</v>
@@ -26161,31 +26466,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="J16" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K16" t="n">
         <v>162</v>
@@ -26200,25 +26505,25 @@
         <v>162</v>
       </c>
       <c r="O16" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P16" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q16" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R16" t="n">
         <v>25</v>
       </c>
       <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="n">
         <v>85</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>145</v>
-      </c>
-      <c r="U16" t="n">
-        <v>162</v>
       </c>
       <c r="V16" t="n">
         <v>162</v>
@@ -26262,13 +26567,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
         <v>80</v>
@@ -26280,7 +26585,7 @@
         <v>80</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -26298,13 +26603,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26345,19 +26650,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -26428,16 +26733,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -26458,7 +26763,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -26538,7 +26843,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26644,7 +26949,7 @@
         <v>455</v>
       </c>
       <c r="C22" t="n">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D22" t="n">
         <v>455</v>
@@ -26721,10 +27026,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="C23" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D23" t="n">
         <v>455</v>
@@ -26769,28 +27074,28 @@
         <v>395</v>
       </c>
       <c r="R23" t="n">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="S23" t="n">
+        <v>455</v>
+      </c>
+      <c r="T23" t="n">
+        <v>455</v>
+      </c>
+      <c r="U23" t="n">
+        <v>455</v>
+      </c>
+      <c r="V23" t="n">
+        <v>455</v>
+      </c>
+      <c r="W23" t="n">
+        <v>455</v>
+      </c>
+      <c r="X23" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y23" t="n">
         <v>395</v>
-      </c>
-      <c r="T23" t="n">
-        <v>455</v>
-      </c>
-      <c r="U23" t="n">
-        <v>455</v>
-      </c>
-      <c r="V23" t="n">
-        <v>455</v>
-      </c>
-      <c r="W23" t="n">
-        <v>455</v>
-      </c>
-      <c r="X23" t="n">
-        <v>455</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>455</v>
       </c>
       <c r="Z23" t="n">
         <v>11044</v>
@@ -26846,10 +27151,10 @@
         <v>130</v>
       </c>
       <c r="Q24" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="R24" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="S24" t="n">
         <v>130</v>
@@ -26864,7 +27169,7 @@
         <v>130</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -26890,7 +27195,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F25" t="n">
         <v>130</v>
@@ -26967,25 +27272,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I26" t="n">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="J26" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K26" t="n">
         <v>162</v>
@@ -27000,25 +27305,25 @@
         <v>162</v>
       </c>
       <c r="O26" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="P26" t="n">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="R26" t="n">
         <v>25</v>
       </c>
       <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="n">
         <v>85</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>145</v>
-      </c>
-      <c r="U26" t="n">
-        <v>162</v>
       </c>
       <c r="V26" t="n">
         <v>162</v>
@@ -27062,13 +27367,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
         <v>80</v>
       </c>
       <c r="L27" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M27" t="n">
         <v>80</v>
@@ -27077,10 +27382,10 @@
         <v>80</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -27092,16 +27397,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U27" t="n">
         <v>80</v>
       </c>
       <c r="V27" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -27142,16 +27447,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -27219,16 +27524,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -27249,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -27326,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -27500,10 +27805,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="C33" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D33" t="n">
         <v>455</v>
@@ -27566,10 +27871,10 @@
         <v>455</v>
       </c>
       <c r="X33" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="Y33" t="n">
-        <v>455</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
@@ -27619,19 +27924,19 @@
         <v>130</v>
       </c>
       <c r="P34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>130</v>
@@ -27643,10 +27948,10 @@
         <v>130</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -27737,25 +28042,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I36" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="J36" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K36" t="n">
         <v>162</v>
@@ -27770,34 +28075,34 @@
         <v>162</v>
       </c>
       <c r="O36" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P36" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="Q36" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="R36" t="n">
         <v>25</v>
       </c>
       <c r="S36" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T36" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U36" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V36" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -27829,13 +28134,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K37" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>80</v>
@@ -27844,13 +28149,13 @@
         <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -27912,19 +28217,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -27942,13 +28247,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -27989,16 +28294,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -28019,7 +28324,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -28066,16 +28371,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -28096,7 +28401,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -28196,7 +28501,7 @@
         <v>455</v>
       </c>
       <c r="C42" t="n">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D42" t="n">
         <v>455</v>
@@ -28270,10 +28575,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D43" t="n">
         <v>455</v>
@@ -28339,7 +28644,7 @@
         <v>455</v>
       </c>
       <c r="Y43" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
@@ -28359,7 +28664,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G44" t="n">
         <v>130</v>
@@ -28389,19 +28694,19 @@
         <v>130</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U44" t="n">
         <v>130</v>
@@ -28410,13 +28715,13 @@
         <v>130</v>
       </c>
       <c r="W44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -28507,25 +28812,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I46" t="n">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J46" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K46" t="n">
         <v>162</v>
@@ -28540,34 +28845,34 @@
         <v>162</v>
       </c>
       <c r="O46" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P46" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="Q46" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="R46" t="n">
         <v>25</v>
       </c>
       <c r="S46" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T46" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U46" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V46" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -28602,25 +28907,25 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K47" t="n">
         <v>80</v>
       </c>
       <c r="L47" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>77.3</v>
       </c>
       <c r="N47" t="n">
         <v>80</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -28682,19 +28987,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -28712,13 +29017,13 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -28759,16 +29064,16 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -28789,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -28836,16 +29141,16 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -28866,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -29040,10 +29345,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D53" t="n">
         <v>455</v>
@@ -29088,10 +29393,10 @@
         <v>395</v>
       </c>
       <c r="R53" t="n">
-        <v>395</v>
+        <v>344.1</v>
       </c>
       <c r="S53" t="n">
-        <v>455</v>
+        <v>404.1</v>
       </c>
       <c r="T53" t="n">
         <v>455</v>
@@ -29159,19 +29464,19 @@
         <v>130</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U54" t="n">
         <v>130</v>
@@ -29180,13 +29485,13 @@
         <v>130</v>
       </c>
       <c r="W54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -29203,7 +29508,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>130</v>
@@ -29277,25 +29582,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J56" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K56" t="n">
         <v>162</v>
@@ -29310,34 +29615,34 @@
         <v>162</v>
       </c>
       <c r="O56" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="P56" t="n">
-        <v>145</v>
+        <v>55.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="R56" t="n">
         <v>25</v>
       </c>
       <c r="S56" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T56" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U56" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V56" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -29369,10 +29674,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K57" t="n">
         <v>80</v>
@@ -29387,7 +29692,7 @@
         <v>80</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -29402,13 +29707,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -29452,16 +29757,16 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L58" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M58" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N58" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -29482,13 +29787,13 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -29529,16 +29834,16 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -29559,7 +29864,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -29636,7 +29941,7 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -29810,10 +30115,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="C63" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D63" t="n">
         <v>455</v>
@@ -29855,7 +30160,7 @@
         <v>455</v>
       </c>
       <c r="Q63" t="n">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="R63" t="n">
         <v>395</v>
@@ -29876,10 +30181,10 @@
         <v>455</v>
       </c>
       <c r="X63" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="Y63" t="n">
-        <v>455</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
@@ -29929,19 +30234,19 @@
         <v>130</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U64" t="n">
         <v>130</v>
@@ -29950,13 +30255,13 @@
         <v>130</v>
       </c>
       <c r="W64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -29973,7 +30278,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F65" t="n">
         <v>130</v>
@@ -30047,25 +30352,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J66" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K66" t="n">
         <v>162</v>
@@ -30080,25 +30385,25 @@
         <v>162</v>
       </c>
       <c r="O66" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P66" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q66" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R66" t="n">
         <v>25</v>
       </c>
       <c r="S66" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T66" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U66" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V66" t="n">
         <v>162</v>
@@ -30142,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K67" t="n">
         <v>80</v>
@@ -30151,16 +30456,16 @@
         <v>80</v>
       </c>
       <c r="M67" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N67" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -30178,7 +30483,7 @@
         <v>80</v>
       </c>
       <c r="V67" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W67" t="n">
         <v>20</v>
@@ -30222,19 +30527,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -30252,13 +30557,13 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
@@ -30299,16 +30604,16 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -30329,7 +30634,7 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -30406,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -30580,10 +30885,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="C73" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D73" t="n">
         <v>455</v>
@@ -30646,10 +30951,10 @@
         <v>455</v>
       </c>
       <c r="X73" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74">
@@ -30720,7 +31025,7 @@
         <v>130</v>
       </c>
       <c r="W74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -30820,22 +31125,22 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I76" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J76" t="n">
-        <v>162</v>
+        <v>103.8</v>
       </c>
       <c r="K76" t="n">
         <v>162</v>
@@ -30850,37 +31155,37 @@
         <v>162</v>
       </c>
       <c r="O76" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P76" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="Q76" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="R76" t="n">
         <v>25</v>
       </c>
       <c r="S76" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T76" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U76" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V76" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
@@ -30912,22 +31217,22 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K77" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L77" t="n">
         <v>80</v>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N77" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -30942,16 +31247,16 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U77" t="n">
         <v>80</v>
       </c>
       <c r="V77" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="W77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -30992,19 +31297,19 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -31069,16 +31374,16 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -31099,7 +31404,7 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -31176,7 +31481,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -31276,7 +31581,7 @@
         <v>455</v>
       </c>
       <c r="C82" t="n">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D82" t="n">
         <v>455</v>
@@ -31350,10 +31655,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="C83" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="D83" t="n">
         <v>455</v>
@@ -31419,7 +31724,7 @@
         <v>455</v>
       </c>
       <c r="Y83" t="n">
-        <v>455</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84">
@@ -31439,7 +31744,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>130</v>
@@ -31469,19 +31774,19 @@
         <v>130</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U84" t="n">
         <v>130</v>
@@ -31493,10 +31798,10 @@
         <v>130</v>
       </c>
       <c r="X84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -31587,25 +31892,25 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J86" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K86" t="n">
         <v>162</v>
@@ -31620,25 +31925,25 @@
         <v>162</v>
       </c>
       <c r="O86" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P86" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q86" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R86" t="n">
         <v>25</v>
       </c>
       <c r="S86" t="n">
+        <v>25</v>
+      </c>
+      <c r="T86" t="n">
         <v>85</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>145</v>
-      </c>
-      <c r="U86" t="n">
-        <v>162</v>
       </c>
       <c r="V86" t="n">
         <v>162</v>
@@ -31682,25 +31987,25 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K87" t="n">
         <v>80</v>
       </c>
       <c r="L87" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M87" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N87" t="n">
         <v>80</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -31712,13 +32017,13 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -31759,22 +32064,22 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -31792,13 +32097,13 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -31839,16 +32144,16 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -31869,7 +32174,7 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -31919,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -31946,7 +32251,7 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -32120,10 +32425,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D93" t="n">
         <v>455</v>
@@ -32165,13 +32470,13 @@
         <v>455</v>
       </c>
       <c r="Q93" t="n">
+        <v>455</v>
+      </c>
+      <c r="R93" t="n">
         <v>395</v>
       </c>
-      <c r="R93" t="n">
-        <v>335</v>
-      </c>
       <c r="S93" t="n">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="T93" t="n">
         <v>455</v>
@@ -32189,7 +32494,7 @@
         <v>455</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94">
@@ -32245,7 +32550,7 @@
         <v>130</v>
       </c>
       <c r="R94" t="n">
-        <v>103</v>
+        <v>105.9</v>
       </c>
       <c r="S94" t="n">
         <v>130</v>
@@ -32283,7 +32588,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F95" t="n">
         <v>130</v>
@@ -32340,7 +32645,7 @@
         <v>130</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
@@ -32363,19 +32668,19 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J96" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="K96" t="n">
         <v>162</v>
@@ -32390,25 +32695,25 @@
         <v>162</v>
       </c>
       <c r="O96" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P96" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q96" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R96" t="n">
         <v>25</v>
       </c>
       <c r="S96" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T96" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="U96" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V96" t="n">
         <v>162</v>
@@ -32452,10 +32757,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>80</v>
@@ -32467,7 +32772,7 @@
         <v>80</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -32482,13 +32787,13 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -32535,16 +32840,16 @@
         <v>25</v>
       </c>
       <c r="L98" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M98" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N98" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -32562,13 +32867,13 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
@@ -32609,16 +32914,16 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -32639,10 +32944,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -32716,7 +33021,7 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
@@ -32876,16 +33181,16 @@
         <v>3000</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>300</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -32893,7 +33198,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -32913,7 +33218,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -32933,7 +33238,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -32953,7 +33258,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -32973,7 +33278,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -32993,7 +33298,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -33013,7 +33318,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -33033,7 +33338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -33048,12 +33353,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>74</v>
+        <v>294.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4426</v>
+        <v>4505.8</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -33068,12 +33373,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>300</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4126</v>
+        <v>4258.8</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -33088,12 +33393,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>254.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3826</v>
+        <v>4004.1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -33108,12 +33413,12 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>254.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3526</v>
+        <v>3749.4</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -33128,12 +33433,12 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>254.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3226</v>
+        <v>3494.7</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -33148,12 +33453,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>226</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3000</v>
+        <v>3354.6</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -33168,12 +33473,12 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120</v>
+        <v>165.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2880</v>
+        <v>3188.8</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -33193,7 +33498,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2880</v>
+        <v>3188.8</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -33213,27 +33518,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2880</v>
+        <v>3188.8</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>60</v>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2820</v>
+        <v>3188.8</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -33248,12 +33553,12 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2700</v>
+        <v>3098.8</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -33268,32 +33573,32 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>255.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2400</v>
+        <v>2843.7</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>0</v>
+      <c r="F22" t="n">
+        <v>143.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -33313,19 +33618,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>300</v>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>0</v>
